--- a/BackTest/2019-10-19 BackTest ETC.xlsx
+++ b/BackTest/2019-10-19 BackTest ETC.xlsx
@@ -965,7 +965,9 @@
       <c r="J12" t="n">
         <v>45</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L12" t="n">
         <v>5203</v>
       </c>
@@ -1022,7 +1024,9 @@
       <c r="J13" t="n">
         <v>45</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L13" t="n">
         <v>5203.5</v>
       </c>
@@ -1079,7 +1083,9 @@
       <c r="J14" t="n">
         <v>50</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>25</v>
+      </c>
       <c r="L14" t="n">
         <v>5204.5</v>
       </c>
@@ -1136,7 +1142,9 @@
       <c r="J15" t="n">
         <v>55</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>25</v>
+      </c>
       <c r="L15" t="n">
         <v>5205</v>
       </c>
@@ -1193,7 +1201,9 @@
       <c r="J16" t="n">
         <v>65</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L16" t="n">
         <v>5207</v>
       </c>
@@ -1250,7 +1260,9 @@
       <c r="J17" t="n">
         <v>65</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L17" t="n">
         <v>5207.5</v>
       </c>
@@ -1307,7 +1319,9 @@
       <c r="J18" t="n">
         <v>65</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>60</v>
+      </c>
       <c r="L18" t="n">
         <v>5208</v>
       </c>
@@ -1364,7 +1378,9 @@
       <c r="J19" t="n">
         <v>65</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>50</v>
+      </c>
       <c r="L19" t="n">
         <v>5209.5</v>
       </c>
@@ -1421,7 +1437,9 @@
       <c r="J20" t="n">
         <v>65</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>50</v>
+      </c>
       <c r="L20" t="n">
         <v>5210.5</v>
       </c>
@@ -1474,7 +1492,9 @@
       <c r="J21" t="n">
         <v>75</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>66.66666666666666</v>
+      </c>
       <c r="L21" t="n">
         <v>5212.5</v>
       </c>
@@ -1533,7 +1553,9 @@
       <c r="J22" t="n">
         <v>85</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>75</v>
+      </c>
       <c r="L22" t="n">
         <v>5215.5</v>
       </c>
@@ -1593,7 +1615,7 @@
         <v>85</v>
       </c>
       <c r="K23" t="n">
-        <v>46.66666666666666</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L23" t="n">
         <v>5218.5</v>
@@ -1654,7 +1676,7 @@
         <v>105</v>
       </c>
       <c r="K24" t="n">
-        <v>57.89473684210527</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
         <v>5223</v>
@@ -1715,7 +1737,7 @@
         <v>110</v>
       </c>
       <c r="K25" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
         <v>5228.5</v>
@@ -1776,7 +1798,7 @@
         <v>110</v>
       </c>
       <c r="K26" t="n">
-        <v>68.42105263157895</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
         <v>5233</v>
@@ -1837,7 +1859,7 @@
         <v>115</v>
       </c>
       <c r="K27" t="n">
-        <v>52.94117647058824</v>
+        <v>80</v>
       </c>
       <c r="L27" t="n">
         <v>5237</v>
@@ -1898,7 +1920,7 @@
         <v>115</v>
       </c>
       <c r="K28" t="n">
-        <v>52.94117647058824</v>
+        <v>80</v>
       </c>
       <c r="L28" t="n">
         <v>5241</v>
@@ -1955,7 +1977,7 @@
         <v>140</v>
       </c>
       <c r="K29" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L29" t="n">
         <v>5242.5</v>
@@ -2010,7 +2032,7 @@
         <v>140</v>
       </c>
       <c r="K30" t="n">
-        <v>26.31578947368421</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L30" t="n">
         <v>5244</v>
@@ -2059,7 +2081,7 @@
         <v>140</v>
       </c>
       <c r="K31" t="n">
-        <v>26.31578947368421</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L31" t="n">
         <v>5244.5</v>
@@ -2110,7 +2132,7 @@
         <v>145</v>
       </c>
       <c r="K32" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>5244.5</v>
@@ -2161,7 +2183,7 @@
         <v>160</v>
       </c>
       <c r="K33" t="n">
-        <v>13.04347826086956</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L33" t="n">
         <v>5243</v>
@@ -2212,7 +2234,7 @@
         <v>175</v>
       </c>
       <c r="K34" t="n">
-        <v>20</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L34" t="n">
         <v>5241</v>
@@ -2263,7 +2285,7 @@
         <v>180</v>
       </c>
       <c r="K35" t="n">
-        <v>28</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L35" t="n">
         <v>5239</v>
@@ -2314,7 +2336,7 @@
         <v>180</v>
       </c>
       <c r="K36" t="n">
-        <v>21.73913043478261</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L36" t="n">
         <v>5237</v>
@@ -2365,7 +2387,7 @@
         <v>185</v>
       </c>
       <c r="K37" t="n">
-        <v>16.66666666666666</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L37" t="n">
         <v>5235</v>
@@ -2416,7 +2438,7 @@
         <v>200</v>
       </c>
       <c r="K38" t="n">
-        <v>3.703703703703703</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L38" t="n">
         <v>5231.5</v>
@@ -2467,7 +2489,7 @@
         <v>200</v>
       </c>
       <c r="K39" t="n">
-        <v>3.703703703703703</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L39" t="n">
         <v>5230.5</v>
@@ -2518,7 +2540,7 @@
         <v>210</v>
       </c>
       <c r="K40" t="n">
-        <v>-3.448275862068965</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L40" t="n">
         <v>5228.5</v>
@@ -2569,7 +2591,7 @@
         <v>240</v>
       </c>
       <c r="K41" t="n">
-        <v>9.090909090909092</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L41" t="n">
         <v>5229.5</v>
@@ -2620,7 +2642,7 @@
         <v>245</v>
       </c>
       <c r="K42" t="n">
-        <v>6.25</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L42" t="n">
         <v>5230.5</v>
@@ -2671,7 +2693,7 @@
         <v>250</v>
       </c>
       <c r="K43" t="n">
-        <v>3.03030303030303</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L43" t="n">
         <v>5232.5</v>
@@ -2722,7 +2744,7 @@
         <v>260</v>
       </c>
       <c r="K44" t="n">
-        <v>-16.12903225806452</v>
+        <v>-12.5</v>
       </c>
       <c r="L44" t="n">
         <v>5232</v>
@@ -2773,7 +2795,7 @@
         <v>265</v>
       </c>
       <c r="K45" t="n">
-        <v>-16.12903225806452</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L45" t="n">
         <v>5231.5</v>
@@ -2824,7 +2846,7 @@
         <v>270</v>
       </c>
       <c r="K46" t="n">
-        <v>-12.5</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L46" t="n">
         <v>5231.5</v>
@@ -2875,7 +2897,7 @@
         <v>290</v>
       </c>
       <c r="K47" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>5230</v>
@@ -2926,7 +2948,7 @@
         <v>310</v>
       </c>
       <c r="K48" t="n">
-        <v>-7.692307692307693</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L48" t="n">
         <v>5232</v>
@@ -2977,7 +2999,7 @@
         <v>325</v>
       </c>
       <c r="K49" t="n">
-        <v>13.51351351351351</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L49" t="n">
         <v>5235.5</v>
@@ -3028,7 +3050,7 @@
         <v>330</v>
       </c>
       <c r="K50" t="n">
-        <v>10.52631578947368</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L50" t="n">
         <v>5239.5</v>
@@ -3079,7 +3101,7 @@
         <v>340</v>
       </c>
       <c r="K51" t="n">
-        <v>15</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L51" t="n">
         <v>5241.5</v>
@@ -3130,7 +3152,7 @@
         <v>345</v>
       </c>
       <c r="K52" t="n">
-        <v>15</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L52" t="n">
         <v>5243.5</v>
@@ -3181,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="K53" t="n">
-        <v>24.32432432432433</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L53" t="n">
         <v>5246</v>
@@ -3232,7 +3254,7 @@
         <v>360</v>
       </c>
       <c r="K54" t="n">
-        <v>8.108108108108109</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L54" t="n">
         <v>5248</v>
@@ -3283,7 +3305,7 @@
         <v>370</v>
       </c>
       <c r="K55" t="n">
-        <v>10.52631578947368</v>
+        <v>20</v>
       </c>
       <c r="L55" t="n">
         <v>5250.5</v>
@@ -3334,7 +3356,7 @@
         <v>395</v>
       </c>
       <c r="K56" t="n">
-        <v>20.93023255813954</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L56" t="n">
         <v>5255</v>
@@ -3385,7 +3407,7 @@
         <v>415</v>
       </c>
       <c r="K57" t="n">
-        <v>13.04347826086956</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L57" t="n">
         <v>5259.5</v>
@@ -3436,7 +3458,7 @@
         <v>415</v>
       </c>
       <c r="K58" t="n">
-        <v>20.93023255813954</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L58" t="n">
         <v>5262</v>
@@ -3487,7 +3509,7 @@
         <v>415</v>
       </c>
       <c r="K59" t="n">
-        <v>20.93023255813954</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L59" t="n">
         <v>5263</v>
@@ -3538,7 +3560,7 @@
         <v>420</v>
       </c>
       <c r="K60" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>5264</v>
@@ -3589,7 +3611,7 @@
         <v>430</v>
       </c>
       <c r="K61" t="n">
-        <v>15.78947368421053</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L61" t="n">
         <v>5265</v>
@@ -3640,7 +3662,7 @@
         <v>435</v>
       </c>
       <c r="K62" t="n">
-        <v>10.52631578947368</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>5265</v>
@@ -3691,7 +3713,7 @@
         <v>435</v>
       </c>
       <c r="K63" t="n">
-        <v>13.51351351351351</v>
+        <v>20</v>
       </c>
       <c r="L63" t="n">
         <v>5265</v>
@@ -3742,7 +3764,7 @@
         <v>450</v>
       </c>
       <c r="K64" t="n">
-        <v>10.52631578947368</v>
+        <v>-12.5</v>
       </c>
       <c r="L64" t="n">
         <v>5265</v>
@@ -3793,7 +3815,7 @@
         <v>450</v>
       </c>
       <c r="K65" t="n">
-        <v>8.108108108108109</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L65" t="n">
         <v>5264</v>
@@ -3844,7 +3866,7 @@
         <v>450</v>
       </c>
       <c r="K66" t="n">
-        <v>5.555555555555555</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L66" t="n">
         <v>5260.5</v>
@@ -3895,7 +3917,7 @@
         <v>460</v>
       </c>
       <c r="K67" t="n">
-        <v>23.52941176470588</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L67" t="n">
         <v>5260</v>
@@ -3946,7 +3968,7 @@
         <v>460</v>
       </c>
       <c r="K68" t="n">
-        <v>13.33333333333333</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L68" t="n">
         <v>5259.5</v>
@@ -3997,7 +4019,7 @@
         <v>465</v>
       </c>
       <c r="K69" t="n">
-        <v>7.142857142857142</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L69" t="n">
         <v>5259.5</v>
@@ -4048,7 +4070,7 @@
         <v>470</v>
       </c>
       <c r="K70" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>5260.5</v>
@@ -4099,7 +4121,7 @@
         <v>470</v>
       </c>
       <c r="K71" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L71" t="n">
         <v>5260.5</v>
@@ -4150,7 +4172,7 @@
         <v>485</v>
       </c>
       <c r="K72" t="n">
-        <v>-7.142857142857142</v>
+        <v>-20</v>
       </c>
       <c r="L72" t="n">
         <v>5259.5</v>
@@ -4201,7 +4223,7 @@
         <v>495</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>5259.5</v>
@@ -4252,7 +4274,7 @@
         <v>500</v>
       </c>
       <c r="K74" t="n">
-        <v>14.28571428571428</v>
+        <v>40</v>
       </c>
       <c r="L74" t="n">
         <v>5261.5</v>
@@ -4303,7 +4325,7 @@
         <v>520</v>
       </c>
       <c r="K75" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>5261.5</v>
@@ -4354,7 +4376,7 @@
         <v>525</v>
       </c>
       <c r="K76" t="n">
-        <v>-30.76923076923077</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L76" t="n">
         <v>5261</v>
@@ -4405,7 +4427,7 @@
         <v>535</v>
       </c>
       <c r="K77" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>5258.5</v>
@@ -4456,7 +4478,7 @@
         <v>540</v>
       </c>
       <c r="K78" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>5256.5</v>
@@ -4507,7 +4529,7 @@
         <v>555</v>
       </c>
       <c r="K79" t="n">
-        <v>-7.142857142857142</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L79" t="n">
         <v>5255.5</v>
@@ -4558,7 +4580,7 @@
         <v>570</v>
       </c>
       <c r="K80" t="n">
-        <v>-13.33333333333333</v>
+        <v>-30</v>
       </c>
       <c r="L80" t="n">
         <v>5252.5</v>
@@ -4609,7 +4631,7 @@
         <v>590</v>
       </c>
       <c r="K81" t="n">
-        <v>-6.25</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L81" t="n">
         <v>5251.5</v>
@@ -4660,7 +4682,7 @@
         <v>595</v>
       </c>
       <c r="K82" t="n">
-        <v>-6.25</v>
+        <v>-10</v>
       </c>
       <c r="L82" t="n">
         <v>5251.5</v>
@@ -4711,7 +4733,7 @@
         <v>595</v>
       </c>
       <c r="K83" t="n">
-        <v>-6.25</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L83" t="n">
         <v>5250.5</v>
@@ -4762,7 +4784,7 @@
         <v>605</v>
       </c>
       <c r="K84" t="n">
-        <v>-3.225806451612903</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L84" t="n">
         <v>5248</v>
@@ -4813,7 +4835,7 @@
         <v>620</v>
       </c>
       <c r="K85" t="n">
-        <v>5.88235294117647</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L85" t="n">
         <v>5249</v>
@@ -4864,7 +4886,7 @@
         <v>625</v>
       </c>
       <c r="K86" t="n">
-        <v>8.571428571428571</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>5251</v>
@@ -4915,7 +4937,7 @@
         <v>630</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L87" t="n">
         <v>5253.5</v>
@@ -4966,7 +4988,7 @@
         <v>635</v>
       </c>
       <c r="K88" t="n">
-        <v>2.857142857142857</v>
+        <v>12.5</v>
       </c>
       <c r="L88" t="n">
         <v>5256</v>
@@ -5017,7 +5039,7 @@
         <v>635</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L89" t="n">
         <v>5257</v>
@@ -5068,7 +5090,7 @@
         <v>635</v>
       </c>
       <c r="K90" t="n">
-        <v>-3.03030303030303</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L90" t="n">
         <v>5259.5</v>
@@ -5119,7 +5141,7 @@
         <v>635</v>
       </c>
       <c r="K91" t="n">
-        <v>-3.03030303030303</v>
+        <v>25</v>
       </c>
       <c r="L91" t="n">
         <v>5260</v>
@@ -5221,7 +5243,7 @@
         <v>645</v>
       </c>
       <c r="K93" t="n">
-        <v>-6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L93" t="n">
         <v>5260</v>
@@ -5272,7 +5294,7 @@
         <v>645</v>
       </c>
       <c r="K94" t="n">
-        <v>-10.3448275862069</v>
+        <v>-20</v>
       </c>
       <c r="L94" t="n">
         <v>5261</v>
@@ -5323,7 +5345,7 @@
         <v>650</v>
       </c>
       <c r="K95" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L95" t="n">
         <v>5261</v>
@@ -5374,7 +5396,7 @@
         <v>675</v>
       </c>
       <c r="K96" t="n">
-        <v>-6.666666666666667</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L96" t="n">
         <v>5258</v>
@@ -5425,7 +5447,7 @@
         <v>695</v>
       </c>
       <c r="K97" t="n">
-        <v>12.5</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L97" t="n">
         <v>5257.5</v>
@@ -5476,7 +5498,7 @@
         <v>695</v>
       </c>
       <c r="K98" t="n">
-        <v>9.67741935483871</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L98" t="n">
         <v>5256.5</v>
@@ -5527,7 +5549,7 @@
         <v>730</v>
       </c>
       <c r="K99" t="n">
-        <v>-20</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L99" t="n">
         <v>5252</v>
@@ -5578,7 +5600,7 @@
         <v>730</v>
       </c>
       <c r="K100" t="n">
-        <v>-12.5</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L100" t="n">
         <v>5247.5</v>
@@ -5629,7 +5651,7 @@
         <v>740</v>
       </c>
       <c r="K101" t="n">
-        <v>-33.33333333333333</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L101" t="n">
         <v>5242</v>
@@ -5680,7 +5702,7 @@
         <v>745</v>
       </c>
       <c r="K102" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L102" t="n">
         <v>5237</v>
@@ -5731,7 +5753,7 @@
         <v>765</v>
       </c>
       <c r="K103" t="n">
-        <v>-17.64705882352941</v>
+        <v>-25</v>
       </c>
       <c r="L103" t="n">
         <v>5234</v>

--- a/BackTest/2019-10-19 BackTest ETC.xlsx
+++ b/BackTest/2019-10-19 BackTest ETC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S103"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -463,37 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="C2" t="n">
-        <v>5210</v>
+        <v>5250</v>
       </c>
       <c r="D2" t="n">
-        <v>5210</v>
+        <v>5250</v>
       </c>
       <c r="E2" t="n">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="F2" t="n">
-        <v>23.2227</v>
+        <v>212</v>
       </c>
       <c r="G2" t="n">
-        <v>5228.25</v>
+        <v>-133021.8409747851</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,41 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5200</v>
+        <v>5255</v>
       </c>
       <c r="C3" t="n">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="D3" t="n">
-        <v>5200</v>
+        <v>5255</v>
       </c>
       <c r="E3" t="n">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>131.8298</v>
       </c>
       <c r="G3" t="n">
-        <v>5227.75</v>
+        <v>-133021.8409747851</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,41 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5200</v>
+        <v>5240</v>
       </c>
       <c r="C4" t="n">
-        <v>5200</v>
+        <v>5240</v>
       </c>
       <c r="D4" t="n">
-        <v>5200</v>
+        <v>5240</v>
       </c>
       <c r="E4" t="n">
-        <v>5200</v>
+        <v>5240</v>
       </c>
       <c r="F4" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>5227.25</v>
+        <v>-133031.8409747851</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,45 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="C5" t="n">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="D5" t="n">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="E5" t="n">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="F5" t="n">
-        <v>112.4507</v>
+        <v>70.021</v>
       </c>
       <c r="G5" t="n">
-        <v>5226.75</v>
+        <v>-132961.8199747851</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>5200</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -635,47 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5195</v>
+        <v>5240</v>
       </c>
       <c r="C6" t="n">
-        <v>5195</v>
+        <v>5240</v>
       </c>
       <c r="D6" t="n">
-        <v>5195</v>
+        <v>5240</v>
       </c>
       <c r="E6" t="n">
-        <v>5195</v>
+        <v>5240</v>
       </c>
       <c r="F6" t="n">
-        <v>200.0012</v>
+        <v>24.28</v>
       </c>
       <c r="G6" t="n">
-        <v>5226.166666666667</v>
+        <v>-132986.0999747851</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -684,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5210</v>
+        <v>5230</v>
       </c>
       <c r="C7" t="n">
-        <v>5210</v>
+        <v>5240</v>
       </c>
       <c r="D7" t="n">
-        <v>5210</v>
+        <v>5240</v>
       </c>
       <c r="E7" t="n">
-        <v>5210</v>
+        <v>5230</v>
       </c>
       <c r="F7" t="n">
-        <v>26.9</v>
+        <v>1332.1782</v>
       </c>
       <c r="G7" t="n">
-        <v>5225.833333333333</v>
+        <v>-132986.0999747851</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -707,24 +631,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>30</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5210</v>
+        <v>5245</v>
       </c>
       <c r="C8" t="n">
-        <v>5210</v>
+        <v>5245</v>
       </c>
       <c r="D8" t="n">
-        <v>5210</v>
+        <v>5245</v>
       </c>
       <c r="E8" t="n">
-        <v>5210</v>
+        <v>5245</v>
       </c>
       <c r="F8" t="n">
-        <v>13.5</v>
+        <v>466.5862</v>
       </c>
       <c r="G8" t="n">
-        <v>5225.5</v>
+        <v>-132519.5137747851</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -756,24 +666,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>30</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -782,47 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5200</v>
+        <v>5230</v>
       </c>
       <c r="C9" t="n">
-        <v>5200</v>
+        <v>5230</v>
       </c>
       <c r="D9" t="n">
-        <v>5205</v>
+        <v>5230</v>
       </c>
       <c r="E9" t="n">
-        <v>5175</v>
+        <v>5230</v>
       </c>
       <c r="F9" t="n">
-        <v>3210.3731</v>
+        <v>225.3</v>
       </c>
       <c r="G9" t="n">
-        <v>5225</v>
+        <v>-132744.8137747851</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J9" t="n">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>5210</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5380</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -831,49 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5200</v>
+        <v>5235</v>
       </c>
       <c r="C10" t="n">
-        <v>5205</v>
+        <v>5240</v>
       </c>
       <c r="D10" t="n">
-        <v>5205</v>
+        <v>5240</v>
       </c>
       <c r="E10" t="n">
-        <v>5200</v>
+        <v>5235</v>
       </c>
       <c r="F10" t="n">
-        <v>97.9952</v>
+        <v>66.7473</v>
       </c>
       <c r="G10" t="n">
-        <v>5224.583333333333</v>
+        <v>-132678.0664747851</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>5200</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -882,55 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5205</v>
+        <v>5235</v>
       </c>
       <c r="C11" t="n">
-        <v>5205</v>
+        <v>5235</v>
       </c>
       <c r="D11" t="n">
-        <v>5205</v>
+        <v>5235</v>
       </c>
       <c r="E11" t="n">
-        <v>5205</v>
+        <v>5235</v>
       </c>
       <c r="F11" t="n">
-        <v>72.28270000000001</v>
+        <v>28.9532</v>
       </c>
       <c r="G11" t="n">
-        <v>5224.166666666667</v>
+        <v>-132707.0196747851</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>5203.5</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
-        <v>5205</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -939,57 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5205</v>
+        <v>5225</v>
       </c>
       <c r="C12" t="n">
-        <v>5205</v>
+        <v>5225</v>
       </c>
       <c r="D12" t="n">
-        <v>5205</v>
+        <v>5225</v>
       </c>
       <c r="E12" t="n">
-        <v>5205</v>
+        <v>5225</v>
       </c>
       <c r="F12" t="n">
-        <v>10.1</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>5223.666666666667</v>
+        <v>-132708.0196747851</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>45</v>
-      </c>
-      <c r="K12" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5203</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
-        <v>5205</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -998,57 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5205</v>
+        <v>5235</v>
       </c>
       <c r="C13" t="n">
-        <v>5205</v>
+        <v>5235</v>
       </c>
       <c r="D13" t="n">
-        <v>5205</v>
+        <v>5235</v>
       </c>
       <c r="E13" t="n">
-        <v>5205</v>
+        <v>5235</v>
       </c>
       <c r="F13" t="n">
-        <v>6.1385</v>
+        <v>99.65779999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>5223.166666666667</v>
+        <v>-132608.3618747851</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>45</v>
-      </c>
-      <c r="K13" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5203.5</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>5205</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1057,57 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5210</v>
+        <v>5225</v>
       </c>
       <c r="C14" t="n">
-        <v>5210</v>
+        <v>5225</v>
       </c>
       <c r="D14" t="n">
-        <v>5210</v>
+        <v>5225</v>
       </c>
       <c r="E14" t="n">
-        <v>5210</v>
+        <v>5225</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4030710172744721</v>
+        <v>345.7639</v>
       </c>
       <c r="G14" t="n">
-        <v>5222.75</v>
+        <v>-132954.1257747851</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>50</v>
-      </c>
-      <c r="K14" t="n">
-        <v>25</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5204.5</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>5205</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1116,57 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5200</v>
+        <v>5230</v>
       </c>
       <c r="C15" t="n">
-        <v>5205</v>
+        <v>5230</v>
       </c>
       <c r="D15" t="n">
-        <v>5205</v>
+        <v>5230</v>
       </c>
       <c r="E15" t="n">
-        <v>5200</v>
+        <v>5230</v>
       </c>
       <c r="F15" t="n">
-        <v>174.326</v>
+        <v>210</v>
       </c>
       <c r="G15" t="n">
-        <v>5222.333333333333</v>
+        <v>-132744.1257747851</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>55</v>
-      </c>
-      <c r="K15" t="n">
-        <v>25</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5205</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>5210</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1175,57 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5215</v>
+        <v>5225</v>
       </c>
       <c r="C16" t="n">
-        <v>5215</v>
+        <v>5230</v>
       </c>
       <c r="D16" t="n">
-        <v>5215</v>
+        <v>5230</v>
       </c>
       <c r="E16" t="n">
-        <v>5215</v>
+        <v>5225</v>
       </c>
       <c r="F16" t="n">
-        <v>277.0021</v>
+        <v>342.4794</v>
       </c>
       <c r="G16" t="n">
-        <v>5222.083333333333</v>
+        <v>-132744.1257747851</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>65</v>
-      </c>
-      <c r="K16" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5207</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>5205</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,57 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="C17" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="D17" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="E17" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="F17" t="n">
-        <v>7.4491</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>5221.833333333333</v>
+        <v>-132745.1257747851</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>65</v>
-      </c>
-      <c r="K17" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5207.5</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>5215</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1299,51 +999,27 @@
         <v>5215</v>
       </c>
       <c r="D18" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="E18" t="n">
-        <v>5215</v>
+        <v>5210</v>
       </c>
       <c r="F18" t="n">
-        <v>70</v>
+        <v>608.8151</v>
       </c>
       <c r="G18" t="n">
-        <v>5221.583333333333</v>
+        <v>-133353.9408747851</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>65</v>
-      </c>
-      <c r="K18" t="n">
-        <v>60</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5208</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>5215</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1361,48 +1037,24 @@
         <v>5215</v>
       </c>
       <c r="E19" t="n">
-        <v>5215</v>
+        <v>5210</v>
       </c>
       <c r="F19" t="n">
-        <v>14.0392</v>
+        <v>192.9343</v>
       </c>
       <c r="G19" t="n">
-        <v>5221.333333333333</v>
+        <v>-133353.9408747851</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>65</v>
-      </c>
-      <c r="K19" t="n">
-        <v>50</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5209.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>5215</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q19" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1411,53 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="C20" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="D20" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="E20" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>91.2</v>
       </c>
       <c r="G20" t="n">
-        <v>5221.083333333333</v>
+        <v>-133262.7408747851</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>65</v>
-      </c>
-      <c r="K20" t="n">
-        <v>50</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5210.5</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>5215</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1466,59 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5225</v>
+        <v>5230</v>
       </c>
       <c r="C21" t="n">
-        <v>5225</v>
+        <v>5230</v>
       </c>
       <c r="D21" t="n">
-        <v>5225</v>
+        <v>5230</v>
       </c>
       <c r="E21" t="n">
-        <v>5225</v>
+        <v>5230</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1913875598086124</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>5221.083333333333</v>
+        <v>-133261.7408747851</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>75</v>
-      </c>
-      <c r="K21" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5212.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>5208</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>5215</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1527,59 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5225</v>
+        <v>5215</v>
       </c>
       <c r="C22" t="n">
-        <v>5235</v>
+        <v>5215</v>
       </c>
       <c r="D22" t="n">
-        <v>5235</v>
+        <v>5215</v>
       </c>
       <c r="E22" t="n">
-        <v>5225</v>
+        <v>5215</v>
       </c>
       <c r="F22" t="n">
-        <v>15.731</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>5221.25</v>
+        <v>-133262.7408747851</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>25</v>
-      </c>
-      <c r="J22" t="n">
-        <v>85</v>
-      </c>
-      <c r="K22" t="n">
-        <v>75</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5215.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>5209.25</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="n">
-        <v>5225</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1588,59 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5235</v>
+        <v>5210</v>
       </c>
       <c r="C23" t="n">
-        <v>5235</v>
+        <v>5220</v>
       </c>
       <c r="D23" t="n">
-        <v>5235</v>
+        <v>5220</v>
       </c>
       <c r="E23" t="n">
-        <v>5235</v>
+        <v>5210</v>
       </c>
       <c r="F23" t="n">
-        <v>96.7</v>
+        <v>149.75</v>
       </c>
       <c r="G23" t="n">
-        <v>5221.416666666667</v>
+        <v>-133112.9908747851</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
-      </c>
-      <c r="J23" t="n">
-        <v>85</v>
-      </c>
-      <c r="K23" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5218.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>5211</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>5235</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1649,59 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5245</v>
+        <v>5220</v>
       </c>
       <c r="C24" t="n">
-        <v>5255</v>
+        <v>5220</v>
       </c>
       <c r="D24" t="n">
-        <v>5255</v>
+        <v>5220</v>
       </c>
       <c r="E24" t="n">
-        <v>5245</v>
+        <v>5220</v>
       </c>
       <c r="F24" t="n">
-        <v>2052.7939</v>
+        <v>0.4</v>
       </c>
       <c r="G24" t="n">
-        <v>5221.916666666667</v>
+        <v>-133112.9908747851</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>45</v>
-      </c>
-      <c r="J24" t="n">
-        <v>105</v>
-      </c>
-      <c r="K24" t="n">
-        <v>100</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5223</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>5213.75</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="n">
-        <v>5235</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1710,59 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5260</v>
+        <v>5210</v>
       </c>
       <c r="C25" t="n">
-        <v>5260</v>
+        <v>5210</v>
       </c>
       <c r="D25" t="n">
-        <v>5260</v>
+        <v>5210</v>
       </c>
       <c r="E25" t="n">
-        <v>5260</v>
+        <v>5210</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1</v>
+        <v>2.25</v>
       </c>
       <c r="G25" t="n">
-        <v>5222.5</v>
+        <v>-133115.2408747851</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>50</v>
-      </c>
-      <c r="J25" t="n">
-        <v>110</v>
-      </c>
-      <c r="K25" t="n">
-        <v>100</v>
-      </c>
-      <c r="L25" t="n">
-        <v>5228.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>5216.75</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="n">
-        <v>5255</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1771,59 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5260</v>
+        <v>5205</v>
       </c>
       <c r="C26" t="n">
-        <v>5260</v>
+        <v>5205</v>
       </c>
       <c r="D26" t="n">
-        <v>5260</v>
+        <v>5205</v>
       </c>
       <c r="E26" t="n">
-        <v>5260</v>
+        <v>5205</v>
       </c>
       <c r="F26" t="n">
-        <v>17.5585</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>5223.083333333333</v>
+        <v>-133116.2408747851</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50</v>
-      </c>
-      <c r="J26" t="n">
-        <v>110</v>
-      </c>
-      <c r="K26" t="n">
-        <v>100</v>
-      </c>
-      <c r="L26" t="n">
-        <v>5233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>5220</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="n">
-        <v>5260</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1832,60 +1308,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5255</v>
+        <v>5215</v>
       </c>
       <c r="C27" t="n">
-        <v>5255</v>
+        <v>5215</v>
       </c>
       <c r="D27" t="n">
-        <v>5255</v>
+        <v>5215</v>
       </c>
       <c r="E27" t="n">
-        <v>5255</v>
+        <v>5215</v>
       </c>
       <c r="F27" t="n">
-        <v>7.4314</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>5223.5</v>
+        <v>-133115.2408747851</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>115</v>
+        <v>5205</v>
       </c>
       <c r="K27" t="n">
-        <v>80</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5237</v>
-      </c>
+        <v>5205</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>5222.25</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="n">
-        <v>5260</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>5200</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S27" t="n">
-        <v>1.005576923076923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1893,55 +1347,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5255</v>
+        <v>5220</v>
       </c>
       <c r="C28" t="n">
-        <v>5255</v>
+        <v>5205</v>
       </c>
       <c r="D28" t="n">
-        <v>5255</v>
+        <v>5220</v>
       </c>
       <c r="E28" t="n">
-        <v>5255</v>
+        <v>5205</v>
       </c>
       <c r="F28" t="n">
-        <v>42.5686</v>
+        <v>2507.6765</v>
       </c>
       <c r="G28" t="n">
-        <v>5223.75</v>
+        <v>-135622.9173747851</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>115</v>
+        <v>5215</v>
       </c>
       <c r="K28" t="n">
-        <v>80</v>
-      </c>
-      <c r="L28" t="n">
-        <v>5241</v>
+        <v>5205</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>5224.5</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
-        <v>5255</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q28" t="n">
-        <v>5215</v>
-      </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1950,53 +1390,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5240</v>
+        <v>5215</v>
       </c>
       <c r="C29" t="n">
-        <v>5230</v>
+        <v>5215</v>
       </c>
       <c r="D29" t="n">
-        <v>5240</v>
+        <v>5215</v>
       </c>
       <c r="E29" t="n">
-        <v>5230</v>
+        <v>5215</v>
       </c>
       <c r="F29" t="n">
-        <v>137.5856</v>
+        <v>0.4026845637583892</v>
       </c>
       <c r="G29" t="n">
-        <v>5223.583333333333</v>
+        <v>-135622.5146902213</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>140</v>
+        <v>5205</v>
       </c>
       <c r="K29" t="n">
-        <v>20</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5242.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>5226</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q29" t="n">
-        <v>5215</v>
-      </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2005,47 +1433,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5230</v>
+        <v>5215</v>
       </c>
       <c r="C30" t="n">
-        <v>5230</v>
+        <v>5215</v>
       </c>
       <c r="D30" t="n">
-        <v>5230</v>
+        <v>5215</v>
       </c>
       <c r="E30" t="n">
-        <v>5230</v>
+        <v>5215</v>
       </c>
       <c r="F30" t="n">
-        <v>431.1184</v>
+        <v>25.9175</v>
       </c>
       <c r="G30" t="n">
-        <v>5223.416666666667</v>
+        <v>-135622.5146902213</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>140</v>
+        <v>5215</v>
       </c>
       <c r="K30" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L30" t="n">
-        <v>5244</v>
+        <v>5205</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>5227.25</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2054,49 +1476,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5230</v>
+        <v>5210</v>
       </c>
       <c r="C31" t="n">
-        <v>5230</v>
+        <v>5200</v>
       </c>
       <c r="D31" t="n">
-        <v>5230</v>
+        <v>5210</v>
       </c>
       <c r="E31" t="n">
-        <v>5230</v>
+        <v>5200</v>
       </c>
       <c r="F31" t="n">
-        <v>21.2357</v>
+        <v>382.3831</v>
       </c>
       <c r="G31" t="n">
-        <v>5223.166666666667</v>
+        <v>-136004.8977902214</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>140</v>
+        <v>5215</v>
       </c>
       <c r="K31" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L31" t="n">
-        <v>5244.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>5228.5</v>
-      </c>
-      <c r="N31" t="n">
-        <v>5220.166666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2105,49 +1519,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5235</v>
+        <v>5200</v>
       </c>
       <c r="C32" t="n">
-        <v>5235</v>
+        <v>5210</v>
       </c>
       <c r="D32" t="n">
-        <v>5235</v>
+        <v>5210</v>
       </c>
       <c r="E32" t="n">
-        <v>5235</v>
+        <v>5200</v>
       </c>
       <c r="F32" t="n">
-        <v>128.1794</v>
+        <v>23.2227</v>
       </c>
       <c r="G32" t="n">
-        <v>5222.916666666667</v>
+        <v>-135981.6750902213</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>145</v>
+        <v>5200</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5244.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>5230</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5221</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2156,49 +1562,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5220</v>
+        <v>5200</v>
       </c>
       <c r="C33" t="n">
-        <v>5220</v>
+        <v>5200</v>
       </c>
       <c r="D33" t="n">
-        <v>5220</v>
+        <v>5200</v>
       </c>
       <c r="E33" t="n">
-        <v>5220</v>
+        <v>5200</v>
       </c>
       <c r="F33" t="n">
-        <v>239</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>5222.416666666667</v>
+        <v>-135983.6750902213</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>160</v>
+        <v>5210</v>
       </c>
       <c r="K33" t="n">
-        <v>-63.63636363636363</v>
-      </c>
-      <c r="L33" t="n">
-        <v>5243</v>
+        <v>5205</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>5230.75</v>
-      </c>
-      <c r="N33" t="n">
-        <v>5221.666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2207,49 +1605,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5235</v>
+        <v>5200</v>
       </c>
       <c r="C34" t="n">
-        <v>5235</v>
+        <v>5200</v>
       </c>
       <c r="D34" t="n">
-        <v>5235</v>
+        <v>5200</v>
       </c>
       <c r="E34" t="n">
-        <v>5235</v>
+        <v>5200</v>
       </c>
       <c r="F34" t="n">
-        <v>87.2175</v>
+        <v>150</v>
       </c>
       <c r="G34" t="n">
-        <v>5222.333333333333</v>
+        <v>-135983.6750902213</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>175</v>
+        <v>5200</v>
       </c>
       <c r="K34" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5241</v>
+        <v>5205</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>5232</v>
-      </c>
-      <c r="N34" t="n">
-        <v>5222.833333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2258,49 +1648,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5240</v>
+        <v>5200</v>
       </c>
       <c r="C35" t="n">
-        <v>5240</v>
+        <v>5200</v>
       </c>
       <c r="D35" t="n">
-        <v>5240</v>
+        <v>5200</v>
       </c>
       <c r="E35" t="n">
-        <v>5240</v>
+        <v>5200</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2120229007633588</v>
+        <v>112.4507</v>
       </c>
       <c r="G35" t="n">
-        <v>5222.166666666667</v>
+        <v>-135983.6750902213</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>180</v>
+        <v>5200</v>
       </c>
       <c r="K35" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5239</v>
+        <v>5205</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>5233.75</v>
-      </c>
-      <c r="N35" t="n">
-        <v>5224.166666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2309,49 +1691,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5240</v>
+        <v>5195</v>
       </c>
       <c r="C36" t="n">
-        <v>5240</v>
+        <v>5195</v>
       </c>
       <c r="D36" t="n">
-        <v>5240</v>
+        <v>5195</v>
       </c>
       <c r="E36" t="n">
-        <v>5240</v>
+        <v>5195</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>200.0012</v>
       </c>
       <c r="G36" t="n">
-        <v>5222.166666666667</v>
+        <v>-136183.6762902213</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>180</v>
+        <v>5200</v>
       </c>
       <c r="K36" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L36" t="n">
-        <v>5237</v>
+        <v>5205</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>5235</v>
-      </c>
-      <c r="N36" t="n">
-        <v>5225.666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2360,49 +1734,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5235</v>
+        <v>5210</v>
       </c>
       <c r="C37" t="n">
-        <v>5235</v>
+        <v>5210</v>
       </c>
       <c r="D37" t="n">
-        <v>5235</v>
+        <v>5210</v>
       </c>
       <c r="E37" t="n">
-        <v>5235</v>
+        <v>5210</v>
       </c>
       <c r="F37" t="n">
-        <v>103.1541</v>
+        <v>26.9</v>
       </c>
       <c r="G37" t="n">
-        <v>5222.083333333333</v>
+        <v>-136156.7762902213</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>185</v>
+        <v>5195</v>
       </c>
       <c r="K37" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5235</v>
+        <v>5205</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>5236</v>
-      </c>
-      <c r="N37" t="n">
-        <v>5226.5</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2411,49 +1777,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5220</v>
+        <v>5210</v>
       </c>
       <c r="C38" t="n">
-        <v>5220</v>
+        <v>5210</v>
       </c>
       <c r="D38" t="n">
-        <v>5220</v>
+        <v>5210</v>
       </c>
       <c r="E38" t="n">
-        <v>5220</v>
+        <v>5210</v>
       </c>
       <c r="F38" t="n">
-        <v>349.3268</v>
+        <v>13.5</v>
       </c>
       <c r="G38" t="n">
-        <v>5221.666666666667</v>
+        <v>-136156.7762902213</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>200</v>
+        <v>5210</v>
       </c>
       <c r="K38" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L38" t="n">
-        <v>5231.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>5236.25</v>
-      </c>
-      <c r="N38" t="n">
-        <v>5226.833333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2462,49 +1820,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5220</v>
+        <v>5200</v>
       </c>
       <c r="C39" t="n">
-        <v>5220</v>
+        <v>5200</v>
       </c>
       <c r="D39" t="n">
-        <v>5220</v>
+        <v>5205</v>
       </c>
       <c r="E39" t="n">
-        <v>5220</v>
+        <v>5175</v>
       </c>
       <c r="F39" t="n">
-        <v>215.5916</v>
+        <v>3210.3731</v>
       </c>
       <c r="G39" t="n">
-        <v>5221.5</v>
+        <v>-139367.1493902213</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>200</v>
+        <v>5210</v>
       </c>
       <c r="K39" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L39" t="n">
-        <v>5230.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>5236.5</v>
-      </c>
-      <c r="N39" t="n">
-        <v>5227.5</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,49 +1863,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5215</v>
+        <v>5200</v>
       </c>
       <c r="C40" t="n">
-        <v>5210</v>
+        <v>5205</v>
       </c>
       <c r="D40" t="n">
-        <v>5215</v>
+        <v>5205</v>
       </c>
       <c r="E40" t="n">
-        <v>5210</v>
+        <v>5200</v>
       </c>
       <c r="F40" t="n">
-        <v>300</v>
+        <v>97.9952</v>
       </c>
       <c r="G40" t="n">
-        <v>5221</v>
+        <v>-139269.1541902213</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>210</v>
+        <v>5200</v>
       </c>
       <c r="K40" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5228.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>5236.25</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5227.666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,49 +1906,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5240</v>
+        <v>5205</v>
       </c>
       <c r="C41" t="n">
-        <v>5240</v>
+        <v>5205</v>
       </c>
       <c r="D41" t="n">
-        <v>5240</v>
+        <v>5205</v>
       </c>
       <c r="E41" t="n">
-        <v>5240</v>
+        <v>5205</v>
       </c>
       <c r="F41" t="n">
-        <v>99.5</v>
+        <v>72.28270000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>5221.083333333333</v>
+        <v>-139269.1541902213</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>240</v>
+        <v>5205</v>
       </c>
       <c r="K41" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5229.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>5237</v>
-      </c>
-      <c r="N41" t="n">
-        <v>5228.833333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2615,49 +1949,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5245</v>
+        <v>5205</v>
       </c>
       <c r="C42" t="n">
-        <v>5245</v>
+        <v>5205</v>
       </c>
       <c r="D42" t="n">
-        <v>5245</v>
+        <v>5205</v>
       </c>
       <c r="E42" t="n">
-        <v>5245</v>
+        <v>5205</v>
       </c>
       <c r="F42" t="n">
-        <v>4.0994</v>
+        <v>10.1</v>
       </c>
       <c r="G42" t="n">
-        <v>5221.416666666667</v>
+        <v>-139269.1541902213</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35</v>
-      </c>
-      <c r="J42" t="n">
-        <v>245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5230.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>5237.5</v>
-      </c>
-      <c r="N42" t="n">
-        <v>5230.166666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2666,49 +1990,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5240</v>
+        <v>5205</v>
       </c>
       <c r="C43" t="n">
-        <v>5240</v>
+        <v>5205</v>
       </c>
       <c r="D43" t="n">
-        <v>5240</v>
+        <v>5205</v>
       </c>
       <c r="E43" t="n">
-        <v>5240</v>
+        <v>5205</v>
       </c>
       <c r="F43" t="n">
-        <v>18.8061</v>
+        <v>6.1385</v>
       </c>
       <c r="G43" t="n">
-        <v>5221.5</v>
+        <v>-139269.1541902213</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>30</v>
-      </c>
-      <c r="J43" t="n">
-        <v>250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5232.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>5237.75</v>
-      </c>
-      <c r="N43" t="n">
-        <v>5231.333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2717,49 +2031,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5230</v>
+        <v>5210</v>
       </c>
       <c r="C44" t="n">
-        <v>5230</v>
+        <v>5210</v>
       </c>
       <c r="D44" t="n">
-        <v>5230</v>
+        <v>5210</v>
       </c>
       <c r="E44" t="n">
-        <v>5230</v>
+        <v>5210</v>
       </c>
       <c r="F44" t="n">
-        <v>3.1133</v>
+        <v>0.4030710172744721</v>
       </c>
       <c r="G44" t="n">
-        <v>5221.583333333333</v>
+        <v>-139268.7511192041</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>20</v>
-      </c>
-      <c r="J44" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L44" t="n">
-        <v>5232</v>
+        <v>5205</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>5236.5</v>
-      </c>
-      <c r="N44" t="n">
-        <v>5232</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,49 +2072,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5235</v>
+        <v>5200</v>
       </c>
       <c r="C45" t="n">
-        <v>5235</v>
+        <v>5205</v>
       </c>
       <c r="D45" t="n">
-        <v>5235</v>
+        <v>5205</v>
       </c>
       <c r="E45" t="n">
-        <v>5235</v>
+        <v>5200</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2</v>
+        <v>174.326</v>
       </c>
       <c r="G45" t="n">
-        <v>5221.666666666667</v>
+        <v>-139443.0771192041</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>25</v>
-      </c>
-      <c r="J45" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5231.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>5235.25</v>
-      </c>
-      <c r="N45" t="n">
-        <v>5233</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2819,49 +2113,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5235</v>
+        <v>5215</v>
       </c>
       <c r="C46" t="n">
-        <v>5240</v>
+        <v>5215</v>
       </c>
       <c r="D46" t="n">
-        <v>5240</v>
+        <v>5215</v>
       </c>
       <c r="E46" t="n">
-        <v>5235</v>
+        <v>5215</v>
       </c>
       <c r="F46" t="n">
-        <v>67.2</v>
+        <v>277.0021</v>
       </c>
       <c r="G46" t="n">
-        <v>5221.833333333333</v>
+        <v>-139166.0750192041</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>30</v>
-      </c>
-      <c r="J46" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L46" t="n">
-        <v>5231.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>5234.25</v>
-      </c>
-      <c r="N46" t="n">
-        <v>5233.833333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,49 +2154,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5235</v>
+        <v>5215</v>
       </c>
       <c r="C47" t="n">
-        <v>5220</v>
+        <v>5215</v>
       </c>
       <c r="D47" t="n">
-        <v>5235</v>
+        <v>5215</v>
       </c>
       <c r="E47" t="n">
-        <v>5220</v>
+        <v>5215</v>
       </c>
       <c r="F47" t="n">
-        <v>2315.8311</v>
+        <v>7.4491</v>
       </c>
       <c r="G47" t="n">
-        <v>5221.833333333333</v>
+        <v>-139166.0750192041</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
-      </c>
-      <c r="J47" t="n">
-        <v>290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>5230</v>
+        <v>5205</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>5232.5</v>
-      </c>
-      <c r="N47" t="n">
-        <v>5234</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2921,49 +2195,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5240</v>
+        <v>5215</v>
       </c>
       <c r="C48" t="n">
-        <v>5240</v>
+        <v>5215</v>
       </c>
       <c r="D48" t="n">
-        <v>5240</v>
+        <v>5215</v>
       </c>
       <c r="E48" t="n">
-        <v>5240</v>
+        <v>5215</v>
       </c>
       <c r="F48" t="n">
-        <v>216.8356</v>
+        <v>70</v>
       </c>
       <c r="G48" t="n">
-        <v>5222.25</v>
+        <v>-139166.0750192041</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>30</v>
-      </c>
-      <c r="J48" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L48" t="n">
-        <v>5232</v>
+        <v>5205</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>5231.75</v>
-      </c>
-      <c r="N48" t="n">
-        <v>5234.833333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2972,49 +2236,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5250</v>
+        <v>5215</v>
       </c>
       <c r="C49" t="n">
-        <v>5255</v>
+        <v>5215</v>
       </c>
       <c r="D49" t="n">
-        <v>5255</v>
+        <v>5215</v>
       </c>
       <c r="E49" t="n">
-        <v>5250</v>
+        <v>5215</v>
       </c>
       <c r="F49" t="n">
-        <v>106</v>
+        <v>14.0392</v>
       </c>
       <c r="G49" t="n">
-        <v>5222.916666666667</v>
+        <v>-139166.0750192041</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>45</v>
-      </c>
-      <c r="J49" t="n">
-        <v>325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>39.1304347826087</v>
-      </c>
-      <c r="L49" t="n">
-        <v>5235.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>5233</v>
-      </c>
-      <c r="N49" t="n">
-        <v>5236.166666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,49 +2277,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5255</v>
+        <v>5215</v>
       </c>
       <c r="C50" t="n">
-        <v>5250</v>
+        <v>5215</v>
       </c>
       <c r="D50" t="n">
-        <v>5270</v>
+        <v>5215</v>
       </c>
       <c r="E50" t="n">
-        <v>5250</v>
+        <v>5215</v>
       </c>
       <c r="F50" t="n">
-        <v>1568.8211</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>5223.416666666667</v>
+        <v>-139166.0750192041</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>40</v>
-      </c>
-      <c r="J50" t="n">
-        <v>330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5239.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>5234</v>
-      </c>
-      <c r="N50" t="n">
-        <v>5237.333333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3074,49 +2318,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5260</v>
+        <v>5225</v>
       </c>
       <c r="C51" t="n">
-        <v>5260</v>
+        <v>5225</v>
       </c>
       <c r="D51" t="n">
-        <v>5260</v>
+        <v>5225</v>
       </c>
       <c r="E51" t="n">
-        <v>5260</v>
+        <v>5225</v>
       </c>
       <c r="F51" t="n">
-        <v>7.4208</v>
+        <v>0.1913875598086124</v>
       </c>
       <c r="G51" t="n">
-        <v>5223.916666666667</v>
+        <v>-139165.8836316442</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>50</v>
-      </c>
-      <c r="J51" t="n">
-        <v>340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L51" t="n">
-        <v>5241.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>5235.5</v>
-      </c>
-      <c r="N51" t="n">
-        <v>5238.5</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3125,49 +2359,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5265</v>
+        <v>5225</v>
       </c>
       <c r="C52" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="D52" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="E52" t="n">
-        <v>5265</v>
+        <v>5225</v>
       </c>
       <c r="F52" t="n">
-        <v>45.0458</v>
+        <v>15.731</v>
       </c>
       <c r="G52" t="n">
-        <v>5224.75</v>
+        <v>-139150.1526316442</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>55</v>
-      </c>
-      <c r="J52" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>26.31578947368421</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5243.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>5237</v>
-      </c>
-      <c r="N52" t="n">
-        <v>5239.5</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3176,49 +2400,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="C53" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="D53" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="E53" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="F53" t="n">
-        <v>37.9868</v>
+        <v>96.7</v>
       </c>
       <c r="G53" t="n">
-        <v>5225.5</v>
+        <v>-139150.1526316442</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>55</v>
-      </c>
-      <c r="J53" t="n">
-        <v>345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="L53" t="n">
-        <v>5246</v>
+        <v>5205</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>5239.25</v>
-      </c>
-      <c r="N53" t="n">
-        <v>5240.5</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3227,49 +2441,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="C54" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="D54" t="n">
-        <v>5250</v>
+        <v>5255</v>
       </c>
       <c r="E54" t="n">
-        <v>5250</v>
+        <v>5245</v>
       </c>
       <c r="F54" t="n">
-        <v>18.7591</v>
+        <v>2052.7939</v>
       </c>
       <c r="G54" t="n">
-        <v>5226</v>
+        <v>-137097.3587316443</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>40</v>
-      </c>
-      <c r="J54" t="n">
-        <v>360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L54" t="n">
-        <v>5248</v>
+        <v>5205</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>5240</v>
-      </c>
-      <c r="N54" t="n">
-        <v>5240.333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3290,37 +2494,27 @@
         <v>5260</v>
       </c>
       <c r="F55" t="n">
-        <v>300.2991</v>
+        <v>0.1</v>
       </c>
       <c r="G55" t="n">
-        <v>5226.833333333333</v>
+        <v>-137097.2587316443</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>20</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5250.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>5241</v>
-      </c>
-      <c r="N55" t="n">
-        <v>5240.333333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3329,49 +2523,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5270</v>
+        <v>5260</v>
       </c>
       <c r="C56" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="D56" t="n">
-        <v>5285</v>
+        <v>5260</v>
       </c>
       <c r="E56" t="n">
-        <v>5270</v>
+        <v>5260</v>
       </c>
       <c r="F56" t="n">
-        <v>801.4845</v>
+        <v>17.5585</v>
       </c>
       <c r="G56" t="n">
-        <v>5228.166666666667</v>
+        <v>-137097.2587316443</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>75</v>
-      </c>
-      <c r="J56" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>61.90476190476191</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5255</v>
+        <v>5205</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>5243.25</v>
-      </c>
-      <c r="N56" t="n">
-        <v>5241.166666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,49 +2564,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="C57" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="D57" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="E57" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="F57" t="n">
-        <v>12.9125</v>
+        <v>7.4314</v>
       </c>
       <c r="G57" t="n">
-        <v>5229</v>
+        <v>-137104.6901316443</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>55</v>
-      </c>
-      <c r="J57" t="n">
-        <v>415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5259.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>5244.75</v>
-      </c>
-      <c r="N57" t="n">
-        <v>5241.5</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3431,49 +2605,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="C58" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="D58" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="E58" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>42.5686</v>
       </c>
       <c r="G58" t="n">
-        <v>5230</v>
+        <v>-137104.6901316443</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>55</v>
-      </c>
-      <c r="J58" t="n">
-        <v>415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5262</v>
+        <v>5205</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>5247</v>
-      </c>
-      <c r="N58" t="n">
-        <v>5241.833333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3482,49 +2646,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5265</v>
+        <v>5240</v>
       </c>
       <c r="C59" t="n">
-        <v>5265</v>
+        <v>5230</v>
       </c>
       <c r="D59" t="n">
-        <v>5270</v>
+        <v>5240</v>
       </c>
       <c r="E59" t="n">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="F59" t="n">
-        <v>489.9112</v>
+        <v>137.5856</v>
       </c>
       <c r="G59" t="n">
-        <v>5230.833333333333</v>
+        <v>-137242.2757316442</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>55</v>
-      </c>
-      <c r="J59" t="n">
-        <v>415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L59" t="n">
-        <v>5263</v>
+        <v>5205</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>5249.25</v>
-      </c>
-      <c r="N59" t="n">
-        <v>5243</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3533,49 +2687,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5260</v>
+        <v>5230</v>
       </c>
       <c r="C60" t="n">
-        <v>5260</v>
+        <v>5230</v>
       </c>
       <c r="D60" t="n">
-        <v>5260</v>
+        <v>5230</v>
       </c>
       <c r="E60" t="n">
-        <v>5260</v>
+        <v>5230</v>
       </c>
       <c r="F60" t="n">
-        <v>12.2063</v>
+        <v>431.1184</v>
       </c>
       <c r="G60" t="n">
-        <v>5231.583333333333</v>
+        <v>-137242.2757316442</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>50</v>
-      </c>
-      <c r="J60" t="n">
-        <v>420</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>5264</v>
+        <v>5205</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>5251.75</v>
-      </c>
-      <c r="N60" t="n">
-        <v>5244</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3584,49 +2728,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5270</v>
+        <v>5230</v>
       </c>
       <c r="C61" t="n">
-        <v>5270</v>
+        <v>5230</v>
       </c>
       <c r="D61" t="n">
-        <v>5270</v>
+        <v>5230</v>
       </c>
       <c r="E61" t="n">
-        <v>5270</v>
+        <v>5230</v>
       </c>
       <c r="F61" t="n">
-        <v>131.928</v>
+        <v>21.2357</v>
       </c>
       <c r="G61" t="n">
-        <v>5232.75</v>
+        <v>-137242.2757316442</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>60</v>
-      </c>
-      <c r="J61" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L61" t="n">
-        <v>5265</v>
+        <v>5205</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>5253.25</v>
-      </c>
-      <c r="N61" t="n">
-        <v>5245.333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3635,49 +2769,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="C62" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="D62" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="E62" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="F62" t="n">
-        <v>8.5123</v>
+        <v>128.1794</v>
       </c>
       <c r="G62" t="n">
-        <v>5233.666666666667</v>
+        <v>-137114.0963316443</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>55</v>
-      </c>
-      <c r="J62" t="n">
-        <v>435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5265</v>
+        <v>5205</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>5254.25</v>
-      </c>
-      <c r="N62" t="n">
-        <v>5246.333333333333</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,49 +2810,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5265</v>
+        <v>5220</v>
       </c>
       <c r="C63" t="n">
-        <v>5265</v>
+        <v>5220</v>
       </c>
       <c r="D63" t="n">
-        <v>5265</v>
+        <v>5220</v>
       </c>
       <c r="E63" t="n">
-        <v>5265</v>
+        <v>5220</v>
       </c>
       <c r="F63" t="n">
-        <v>66.6003</v>
+        <v>239</v>
       </c>
       <c r="G63" t="n">
-        <v>5234.75</v>
+        <v>-137353.0963316443</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>55</v>
-      </c>
-      <c r="J63" t="n">
-        <v>435</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>20</v>
-      </c>
-      <c r="L63" t="n">
-        <v>5265</v>
+        <v>5205</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>5255.5</v>
-      </c>
-      <c r="N63" t="n">
-        <v>5247.833333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3737,49 +2851,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5250</v>
+        <v>5235</v>
       </c>
       <c r="C64" t="n">
-        <v>5250</v>
+        <v>5235</v>
       </c>
       <c r="D64" t="n">
-        <v>5250</v>
+        <v>5235</v>
       </c>
       <c r="E64" t="n">
-        <v>5250</v>
+        <v>5235</v>
       </c>
       <c r="F64" t="n">
-        <v>98.93859999999999</v>
+        <v>87.2175</v>
       </c>
       <c r="G64" t="n">
-        <v>5235.583333333333</v>
+        <v>-137265.8788316443</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>40</v>
-      </c>
-      <c r="J64" t="n">
-        <v>450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L64" t="n">
-        <v>5265</v>
+        <v>5205</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>5256.5</v>
-      </c>
-      <c r="N64" t="n">
-        <v>5248.333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3788,49 +2892,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="C65" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="D65" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="E65" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="F65" t="n">
-        <v>32.0614</v>
+        <v>0.2120229007633588</v>
       </c>
       <c r="G65" t="n">
-        <v>5236.416666666667</v>
+        <v>-137265.6668087435</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>40</v>
-      </c>
-      <c r="J65" t="n">
-        <v>450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>-63.63636363636363</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5264</v>
+        <v>5205</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>5257.25</v>
-      </c>
-      <c r="N65" t="n">
-        <v>5248.666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3839,49 +2933,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5255</v>
+        <v>5240</v>
       </c>
       <c r="C66" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="D66" t="n">
-        <v>5255</v>
+        <v>5240</v>
       </c>
       <c r="E66" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="F66" t="n">
-        <v>42.9</v>
+        <v>4</v>
       </c>
       <c r="G66" t="n">
-        <v>5237.333333333333</v>
+        <v>-137265.6668087435</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>40</v>
-      </c>
-      <c r="J66" t="n">
-        <v>450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5260.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>5257.75</v>
-      </c>
-      <c r="N66" t="n">
-        <v>5249</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,49 +2974,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5260</v>
+        <v>5235</v>
       </c>
       <c r="C67" t="n">
-        <v>5260</v>
+        <v>5235</v>
       </c>
       <c r="D67" t="n">
-        <v>5260</v>
+        <v>5235</v>
       </c>
       <c r="E67" t="n">
-        <v>5260</v>
+        <v>5235</v>
       </c>
       <c r="F67" t="n">
-        <v>20.2</v>
+        <v>103.1541</v>
       </c>
       <c r="G67" t="n">
-        <v>5238.166666666667</v>
+        <v>-137368.8209087435</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>50</v>
-      </c>
-      <c r="J67" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L67" t="n">
-        <v>5260</v>
+        <v>5205</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>5259.75</v>
-      </c>
-      <c r="N67" t="n">
-        <v>5249.833333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3941,49 +3015,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5260</v>
+        <v>5220</v>
       </c>
       <c r="C68" t="n">
-        <v>5260</v>
+        <v>5220</v>
       </c>
       <c r="D68" t="n">
-        <v>5260</v>
+        <v>5220</v>
       </c>
       <c r="E68" t="n">
-        <v>5260</v>
+        <v>5220</v>
       </c>
       <c r="F68" t="n">
-        <v>39.1634</v>
+        <v>349.3268</v>
       </c>
       <c r="G68" t="n">
-        <v>5239</v>
+        <v>-137718.1477087435</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>50</v>
-      </c>
-      <c r="J68" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L68" t="n">
-        <v>5259.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>5260.75</v>
-      </c>
-      <c r="N68" t="n">
-        <v>5251.166666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3992,49 +3056,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5265</v>
+        <v>5220</v>
       </c>
       <c r="C69" t="n">
-        <v>5265</v>
+        <v>5220</v>
       </c>
       <c r="D69" t="n">
-        <v>5265</v>
+        <v>5220</v>
       </c>
       <c r="E69" t="n">
-        <v>5265</v>
+        <v>5220</v>
       </c>
       <c r="F69" t="n">
-        <v>30.3</v>
+        <v>215.5916</v>
       </c>
       <c r="G69" t="n">
-        <v>5240.083333333333</v>
+        <v>-137718.1477087435</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>55</v>
-      </c>
-      <c r="J69" t="n">
-        <v>465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5259.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>5261.25</v>
-      </c>
-      <c r="N69" t="n">
-        <v>5252.666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4043,49 +3097,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5270</v>
+        <v>5215</v>
       </c>
       <c r="C70" t="n">
-        <v>5270</v>
+        <v>5210</v>
       </c>
       <c r="D70" t="n">
-        <v>5270</v>
+        <v>5215</v>
       </c>
       <c r="E70" t="n">
-        <v>5270</v>
+        <v>5210</v>
       </c>
       <c r="F70" t="n">
-        <v>16.1635</v>
+        <v>300</v>
       </c>
       <c r="G70" t="n">
-        <v>5241.166666666667</v>
+        <v>-138018.1477087435</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>60</v>
-      </c>
-      <c r="J70" t="n">
-        <v>470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5260.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>5262.25</v>
-      </c>
-      <c r="N70" t="n">
-        <v>5254.666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4094,49 +3138,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5270</v>
+        <v>5240</v>
       </c>
       <c r="C71" t="n">
-        <v>5270</v>
+        <v>5240</v>
       </c>
       <c r="D71" t="n">
-        <v>5270</v>
+        <v>5240</v>
       </c>
       <c r="E71" t="n">
-        <v>5270</v>
+        <v>5240</v>
       </c>
       <c r="F71" t="n">
-        <v>16.1635</v>
+        <v>99.5</v>
       </c>
       <c r="G71" t="n">
-        <v>5242.25</v>
+        <v>-137918.6477087435</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>60</v>
-      </c>
-      <c r="J71" t="n">
-        <v>470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L71" t="n">
-        <v>5260.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>5262.75</v>
-      </c>
-      <c r="N71" t="n">
-        <v>5255.666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4145,49 +3179,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="C72" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="D72" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="E72" t="n">
-        <v>5255</v>
+        <v>5245</v>
       </c>
       <c r="F72" t="n">
-        <v>1.1681</v>
+        <v>4.0994</v>
       </c>
       <c r="G72" t="n">
-        <v>5243.083333333333</v>
+        <v>-137914.5483087435</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>45</v>
-      </c>
-      <c r="J72" t="n">
-        <v>485</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5259.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>5262.25</v>
-      </c>
-      <c r="N72" t="n">
-        <v>5256</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4196,49 +3220,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5265</v>
+        <v>5240</v>
       </c>
       <c r="C73" t="n">
-        <v>5265</v>
+        <v>5240</v>
       </c>
       <c r="D73" t="n">
-        <v>5265</v>
+        <v>5240</v>
       </c>
       <c r="E73" t="n">
-        <v>5265</v>
+        <v>5240</v>
       </c>
       <c r="F73" t="n">
-        <v>6.2917</v>
+        <v>18.8061</v>
       </c>
       <c r="G73" t="n">
-        <v>5244.083333333333</v>
+        <v>-137933.3544087435</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>55</v>
-      </c>
-      <c r="J73" t="n">
-        <v>495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5259.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>5262.25</v>
-      </c>
-      <c r="N73" t="n">
-        <v>5256.833333333333</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4247,49 +3261,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5270</v>
+        <v>5230</v>
       </c>
       <c r="C74" t="n">
-        <v>5270</v>
+        <v>5230</v>
       </c>
       <c r="D74" t="n">
-        <v>5270</v>
+        <v>5230</v>
       </c>
       <c r="E74" t="n">
-        <v>5270</v>
+        <v>5230</v>
       </c>
       <c r="F74" t="n">
-        <v>18.8574</v>
+        <v>3.1133</v>
       </c>
       <c r="G74" t="n">
-        <v>5245.083333333333</v>
+        <v>-137936.4677087435</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>60</v>
-      </c>
-      <c r="J74" t="n">
-        <v>500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>40</v>
-      </c>
-      <c r="L74" t="n">
-        <v>5261.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>5263.25</v>
-      </c>
-      <c r="N74" t="n">
-        <v>5258.166666666667</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,49 +3302,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5250</v>
+        <v>5235</v>
       </c>
       <c r="C75" t="n">
-        <v>5250</v>
+        <v>5235</v>
       </c>
       <c r="D75" t="n">
-        <v>5250</v>
+        <v>5235</v>
       </c>
       <c r="E75" t="n">
-        <v>5250</v>
+        <v>5235</v>
       </c>
       <c r="F75" t="n">
-        <v>400</v>
+        <v>0.2</v>
       </c>
       <c r="G75" t="n">
-        <v>5245.833333333333</v>
+        <v>-137936.2677087435</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>40</v>
-      </c>
-      <c r="J75" t="n">
-        <v>520</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>5261.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>5262.75</v>
-      </c>
-      <c r="N75" t="n">
-        <v>5258.666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,49 +3343,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5245</v>
+        <v>5235</v>
       </c>
       <c r="C76" t="n">
-        <v>5245</v>
+        <v>5240</v>
       </c>
       <c r="D76" t="n">
-        <v>5245</v>
+        <v>5240</v>
       </c>
       <c r="E76" t="n">
-        <v>5240</v>
+        <v>5235</v>
       </c>
       <c r="F76" t="n">
-        <v>242.8183</v>
+        <v>67.2</v>
       </c>
       <c r="G76" t="n">
-        <v>5246.333333333333</v>
+        <v>-137869.0677087435</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>35</v>
-      </c>
-      <c r="J76" t="n">
-        <v>525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L76" t="n">
-        <v>5261</v>
+        <v>5205</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>5260.75</v>
-      </c>
-      <c r="N76" t="n">
-        <v>5258.833333333333</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,46 +3387,36 @@
         <v>5235</v>
       </c>
       <c r="C77" t="n">
-        <v>5235</v>
+        <v>5220</v>
       </c>
       <c r="D77" t="n">
         <v>5235</v>
       </c>
       <c r="E77" t="n">
-        <v>5235</v>
+        <v>5220</v>
       </c>
       <c r="F77" t="n">
-        <v>200.0775</v>
+        <v>2315.8311</v>
       </c>
       <c r="G77" t="n">
-        <v>5246.666666666667</v>
+        <v>-140184.8988087435</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>25</v>
-      </c>
-      <c r="J77" t="n">
-        <v>535</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5258.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>5259.25</v>
-      </c>
-      <c r="N77" t="n">
-        <v>5259.333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4463,37 +3437,27 @@
         <v>5240</v>
       </c>
       <c r="F78" t="n">
-        <v>2.7605</v>
+        <v>216.8356</v>
       </c>
       <c r="G78" t="n">
-        <v>5247.083333333333</v>
+        <v>-139968.0632087435</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>30</v>
-      </c>
-      <c r="J78" t="n">
-        <v>540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5256.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>5258</v>
-      </c>
-      <c r="N78" t="n">
-        <v>5259.333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4502,7 +3466,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="C79" t="n">
         <v>5255</v>
@@ -4511,40 +3475,30 @@
         <v>5255</v>
       </c>
       <c r="E79" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="F79" t="n">
-        <v>1.9668</v>
+        <v>106</v>
       </c>
       <c r="G79" t="n">
-        <v>5247.75</v>
+        <v>-139862.0632087435</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>45</v>
-      </c>
-      <c r="J79" t="n">
-        <v>555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L79" t="n">
-        <v>5255.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>5257.5</v>
-      </c>
-      <c r="N79" t="n">
-        <v>5259.333333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4553,49 +3507,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5245</v>
+        <v>5255</v>
       </c>
       <c r="C80" t="n">
-        <v>5240</v>
+        <v>5250</v>
       </c>
       <c r="D80" t="n">
-        <v>5245</v>
+        <v>5270</v>
       </c>
       <c r="E80" t="n">
-        <v>5240</v>
+        <v>5250</v>
       </c>
       <c r="F80" t="n">
-        <v>80.515</v>
+        <v>1568.8211</v>
       </c>
       <c r="G80" t="n">
-        <v>5248.166666666667</v>
+        <v>-141430.8843087435</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>30</v>
-      </c>
-      <c r="J80" t="n">
-        <v>570</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>-30</v>
-      </c>
-      <c r="L80" t="n">
-        <v>5252.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>5256.5</v>
-      </c>
-      <c r="N80" t="n">
-        <v>5259</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,37 +3560,27 @@
         <v>5260</v>
       </c>
       <c r="F81" t="n">
-        <v>37.3404</v>
+        <v>7.4208</v>
       </c>
       <c r="G81" t="n">
-        <v>5248.75</v>
+        <v>-141423.4635087435</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>50</v>
-      </c>
-      <c r="J81" t="n">
-        <v>590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5251.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>5256</v>
-      </c>
-      <c r="N81" t="n">
-        <v>5259</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4655,49 +3589,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="C82" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="D82" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="E82" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="F82" t="n">
-        <v>10.6538</v>
+        <v>45.0458</v>
       </c>
       <c r="G82" t="n">
-        <v>5249.083333333333</v>
+        <v>-141378.4177087435</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>45</v>
-      </c>
-      <c r="J82" t="n">
-        <v>595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5251.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>5255.5</v>
-      </c>
-      <c r="N82" t="n">
-        <v>5258.666666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4706,49 +3630,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="C83" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="D83" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="E83" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="F83" t="n">
-        <v>18.1889</v>
+        <v>37.9868</v>
       </c>
       <c r="G83" t="n">
-        <v>5249.416666666667</v>
+        <v>-141378.4177087435</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>45</v>
-      </c>
-      <c r="J83" t="n">
-        <v>595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L83" t="n">
-        <v>5250.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>5255</v>
-      </c>
-      <c r="N83" t="n">
-        <v>5258.333333333333</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4757,49 +3671,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5245</v>
+        <v>5250</v>
       </c>
       <c r="C84" t="n">
-        <v>5245</v>
+        <v>5250</v>
       </c>
       <c r="D84" t="n">
-        <v>5245</v>
+        <v>5250</v>
       </c>
       <c r="E84" t="n">
-        <v>5245</v>
+        <v>5250</v>
       </c>
       <c r="F84" t="n">
-        <v>96.5</v>
+        <v>18.7591</v>
       </c>
       <c r="G84" t="n">
-        <v>5249.25</v>
+        <v>-141397.1768087435</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>35</v>
-      </c>
-      <c r="J84" t="n">
-        <v>605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L84" t="n">
-        <v>5248</v>
+        <v>5205</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>5254.75</v>
-      </c>
-      <c r="N84" t="n">
-        <v>5258.166666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4820,37 +3724,27 @@
         <v>5260</v>
       </c>
       <c r="F85" t="n">
-        <v>55.6059</v>
+        <v>300.2991</v>
       </c>
       <c r="G85" t="n">
-        <v>5249.25</v>
+        <v>-141096.8777087435</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>50</v>
-      </c>
-      <c r="J85" t="n">
-        <v>620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L85" t="n">
-        <v>5249</v>
+        <v>5205</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>5255.25</v>
-      </c>
-      <c r="N85" t="n">
-        <v>5258.166666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4859,49 +3753,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="C86" t="n">
-        <v>5265</v>
+        <v>5285</v>
       </c>
       <c r="D86" t="n">
-        <v>5265</v>
+        <v>5285</v>
       </c>
       <c r="E86" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="F86" t="n">
-        <v>165.6194</v>
+        <v>801.4845</v>
       </c>
       <c r="G86" t="n">
-        <v>5249.333333333333</v>
+        <v>-140295.3932087435</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L86" t="n">
-        <v>5251</v>
+        <v>5205</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>5256</v>
-      </c>
-      <c r="N86" t="n">
-        <v>5257.5</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4910,49 +3794,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="C87" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="D87" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="E87" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="F87" t="n">
-        <v>18.03</v>
+        <v>12.9125</v>
       </c>
       <c r="G87" t="n">
-        <v>5249.416666666667</v>
+        <v>-140308.3057087435</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>50</v>
-      </c>
-      <c r="J87" t="n">
-        <v>630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="L87" t="n">
-        <v>5253.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>5256</v>
-      </c>
-      <c r="N87" t="n">
-        <v>5257.333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4973,37 +3847,27 @@
         <v>5265</v>
       </c>
       <c r="F88" t="n">
-        <v>19.0327</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>5249.583333333333</v>
+        <v>-140308.3057087435</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>55</v>
-      </c>
-      <c r="J88" t="n">
-        <v>635</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L88" t="n">
-        <v>5256</v>
+        <v>5205</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>5256.25</v>
-      </c>
-      <c r="N88" t="n">
-        <v>5257.333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,43 +3882,33 @@
         <v>5265</v>
       </c>
       <c r="D89" t="n">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="E89" t="n">
-        <v>5265</v>
+        <v>5250</v>
       </c>
       <c r="F89" t="n">
-        <v>13.0133</v>
+        <v>489.9112</v>
       </c>
       <c r="G89" t="n">
-        <v>5250.166666666667</v>
+        <v>-140308.3057087435</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>55</v>
-      </c>
-      <c r="J89" t="n">
-        <v>635</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L89" t="n">
-        <v>5257</v>
+        <v>5205</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>5256.25</v>
-      </c>
-      <c r="N89" t="n">
-        <v>5257.333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5063,49 +3917,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="C90" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="D90" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="E90" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="F90" t="n">
-        <v>8.1732</v>
+        <v>12.2063</v>
       </c>
       <c r="G90" t="n">
-        <v>5250.75</v>
+        <v>-140320.5120087435</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>55</v>
-      </c>
-      <c r="J90" t="n">
-        <v>635</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L90" t="n">
-        <v>5259.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>5256</v>
-      </c>
-      <c r="N90" t="n">
-        <v>5257.5</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5114,49 +3958,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="C91" t="n">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="D91" t="n">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="E91" t="n">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="F91" t="n">
-        <v>6.1103</v>
+        <v>131.928</v>
       </c>
       <c r="G91" t="n">
-        <v>5251.333333333333</v>
+        <v>-140188.5840087435</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>55</v>
-      </c>
-      <c r="J91" t="n">
-        <v>635</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>25</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5260</v>
+        <v>5205</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>5255.75</v>
-      </c>
-      <c r="N91" t="n">
-        <v>5257.333333333333</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5165,49 +3999,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="C92" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="D92" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="E92" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="F92" t="n">
-        <v>13.7</v>
+        <v>8.5123</v>
       </c>
       <c r="G92" t="n">
-        <v>5251.666666666667</v>
+        <v>-140197.0963087435</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>45</v>
-      </c>
-      <c r="J92" t="n">
-        <v>645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>5260</v>
+        <v>5205</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>5255.75</v>
-      </c>
-      <c r="N92" t="n">
-        <v>5257</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5216,49 +4040,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="C93" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="D93" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="E93" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="F93" t="n">
-        <v>13.3</v>
+        <v>66.6003</v>
       </c>
       <c r="G93" t="n">
-        <v>5252.25</v>
+        <v>-140197.0963087435</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>45</v>
-      </c>
-      <c r="J93" t="n">
-        <v>645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>25</v>
-      </c>
-      <c r="L93" t="n">
-        <v>5260</v>
+        <v>5205</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>5255.25</v>
-      </c>
-      <c r="N93" t="n">
-        <v>5256.666666666667</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5267,49 +4081,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="C94" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="D94" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="E94" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="F94" t="n">
-        <v>13.4</v>
+        <v>98.93859999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>5252.583333333333</v>
+        <v>-140296.0349087435</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>45</v>
-      </c>
-      <c r="J94" t="n">
-        <v>645</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L94" t="n">
-        <v>5261</v>
+        <v>5205</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>5254.5</v>
-      </c>
-      <c r="N94" t="n">
-        <v>5256.833333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5318,49 +4122,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="C95" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="D95" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="E95" t="n">
-        <v>5260</v>
+        <v>5250</v>
       </c>
       <c r="F95" t="n">
-        <v>254.7007</v>
+        <v>32.0614</v>
       </c>
       <c r="G95" t="n">
-        <v>5252.916666666667</v>
+        <v>-140296.0349087435</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>50</v>
-      </c>
-      <c r="J95" t="n">
-        <v>650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L95" t="n">
-        <v>5261</v>
+        <v>5205</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>5255</v>
-      </c>
-      <c r="N95" t="n">
-        <v>5257.166666666667</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5369,49 +4163,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5235</v>
+        <v>5255</v>
       </c>
       <c r="C96" t="n">
-        <v>5235</v>
+        <v>5250</v>
       </c>
       <c r="D96" t="n">
-        <v>5235</v>
+        <v>5255</v>
       </c>
       <c r="E96" t="n">
-        <v>5235</v>
+        <v>5250</v>
       </c>
       <c r="F96" t="n">
-        <v>37.247</v>
+        <v>42.9</v>
       </c>
       <c r="G96" t="n">
-        <v>5252.833333333333</v>
+        <v>-140296.0349087435</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>25</v>
-      </c>
-      <c r="J96" t="n">
-        <v>675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L96" t="n">
-        <v>5258</v>
+        <v>5205</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>5254.5</v>
-      </c>
-      <c r="N96" t="n">
-        <v>5256.666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5420,49 +4204,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="C97" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="D97" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="E97" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="F97" t="n">
-        <v>9.5405</v>
+        <v>20.2</v>
       </c>
       <c r="G97" t="n">
-        <v>5253.166666666667</v>
+        <v>-140275.8349087435</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>45</v>
-      </c>
-      <c r="J97" t="n">
-        <v>695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L97" t="n">
-        <v>5257.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>5255.5</v>
-      </c>
-      <c r="N97" t="n">
-        <v>5256.5</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5471,49 +4245,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="C98" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="D98" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="E98" t="n">
-        <v>5255</v>
+        <v>5260</v>
       </c>
       <c r="F98" t="n">
-        <v>190.29</v>
+        <v>39.1634</v>
       </c>
       <c r="G98" t="n">
-        <v>5253.75</v>
+        <v>-140275.8349087435</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>45</v>
-      </c>
-      <c r="J98" t="n">
-        <v>695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L98" t="n">
-        <v>5256.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>5256.25</v>
-      </c>
-      <c r="N98" t="n">
-        <v>5256.333333333333</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5522,49 +4286,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5225</v>
+        <v>5265</v>
       </c>
       <c r="C99" t="n">
-        <v>5220</v>
+        <v>5265</v>
       </c>
       <c r="D99" t="n">
-        <v>5225</v>
+        <v>5265</v>
       </c>
       <c r="E99" t="n">
-        <v>5215</v>
+        <v>5265</v>
       </c>
       <c r="F99" t="n">
-        <v>269.1395</v>
+        <v>30.3</v>
       </c>
       <c r="G99" t="n">
-        <v>5253.75</v>
+        <v>-140245.5349087435</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>10</v>
-      </c>
-      <c r="J99" t="n">
-        <v>730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>-47.36842105263158</v>
-      </c>
-      <c r="L99" t="n">
-        <v>5252</v>
+        <v>5205</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>5254.5</v>
-      </c>
-      <c r="N99" t="n">
-        <v>5254.833333333333</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5573,49 +4327,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5210</v>
+        <v>5270</v>
       </c>
       <c r="C100" t="n">
-        <v>5220</v>
+        <v>5270</v>
       </c>
       <c r="D100" t="n">
-        <v>5220</v>
+        <v>5270</v>
       </c>
       <c r="E100" t="n">
-        <v>5210</v>
+        <v>5270</v>
       </c>
       <c r="F100" t="n">
-        <v>286.9352</v>
+        <v>16.1635</v>
       </c>
       <c r="G100" t="n">
-        <v>5253.916666666667</v>
+        <v>-140229.3714087435</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>10</v>
-      </c>
-      <c r="J100" t="n">
-        <v>730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>-47.36842105263158</v>
-      </c>
-      <c r="L100" t="n">
-        <v>5247.5</v>
+        <v>5205</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>5253.5</v>
-      </c>
-      <c r="N100" t="n">
-        <v>5253.166666666667</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5624,22 +4368,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5220</v>
+        <v>5270</v>
       </c>
       <c r="C101" t="n">
-        <v>5210</v>
+        <v>5270</v>
       </c>
       <c r="D101" t="n">
-        <v>5220</v>
+        <v>5270</v>
       </c>
       <c r="E101" t="n">
-        <v>5210</v>
+        <v>5270</v>
       </c>
       <c r="F101" t="n">
-        <v>150.1902</v>
+        <v>16.1635</v>
       </c>
       <c r="G101" t="n">
-        <v>5253.416666666667</v>
+        <v>-140229.3714087435</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -5647,26 +4391,16 @@
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>740</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>-47.36842105263158</v>
-      </c>
-      <c r="L101" t="n">
-        <v>5242</v>
+        <v>5205</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>5251</v>
-      </c>
-      <c r="N101" t="n">
-        <v>5251.166666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5675,49 +4409,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5205</v>
+        <v>5255</v>
       </c>
       <c r="C102" t="n">
-        <v>5205</v>
+        <v>5255</v>
       </c>
       <c r="D102" t="n">
-        <v>5205</v>
+        <v>5255</v>
       </c>
       <c r="E102" t="n">
-        <v>5205</v>
+        <v>5255</v>
       </c>
       <c r="F102" t="n">
-        <v>6.3868</v>
+        <v>1.1681</v>
       </c>
       <c r="G102" t="n">
-        <v>5252.75</v>
+        <v>-140230.5395087435</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J102" t="n">
-        <v>745</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L102" t="n">
-        <v>5237</v>
+        <v>5205</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>5248.5</v>
-      </c>
-      <c r="N102" t="n">
-        <v>5249.5</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5726,49 +4450,818 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5225</v>
+        <v>5265</v>
       </c>
       <c r="C103" t="n">
-        <v>5225</v>
+        <v>5265</v>
       </c>
       <c r="D103" t="n">
-        <v>5225</v>
+        <v>5265</v>
       </c>
       <c r="E103" t="n">
-        <v>5225</v>
+        <v>5265</v>
       </c>
       <c r="F103" t="n">
-        <v>17.5638</v>
+        <v>6.2917</v>
       </c>
       <c r="G103" t="n">
-        <v>5252.5</v>
+        <v>-140224.2478087435</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>15</v>
-      </c>
-      <c r="J103" t="n">
-        <v>765</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L103" t="n">
-        <v>5234</v>
+        <v>5205</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>5247</v>
-      </c>
-      <c r="N103" t="n">
-        <v>5248.166666666667</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5270</v>
+      </c>
+      <c r="C104" t="n">
+        <v>5270</v>
+      </c>
+      <c r="D104" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5270</v>
+      </c>
+      <c r="F104" t="n">
+        <v>18.8574</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-140205.3904087435</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C105" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D105" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E105" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F105" t="n">
+        <v>400</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-140605.3904087435</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5245</v>
+      </c>
+      <c r="C106" t="n">
+        <v>5245</v>
+      </c>
+      <c r="D106" t="n">
+        <v>5245</v>
+      </c>
+      <c r="E106" t="n">
+        <v>5240</v>
+      </c>
+      <c r="F106" t="n">
+        <v>242.8183</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-140848.2087087435</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5235</v>
+      </c>
+      <c r="C107" t="n">
+        <v>5235</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5235</v>
+      </c>
+      <c r="E107" t="n">
+        <v>5235</v>
+      </c>
+      <c r="F107" t="n">
+        <v>200.0775</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-141048.2862087435</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5240</v>
+      </c>
+      <c r="C108" t="n">
+        <v>5240</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5240</v>
+      </c>
+      <c r="E108" t="n">
+        <v>5240</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2.7605</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-141045.5257087435</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D109" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E109" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.9668</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-141043.5589087435</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5245</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5240</v>
+      </c>
+      <c r="D110" t="n">
+        <v>5245</v>
+      </c>
+      <c r="E110" t="n">
+        <v>5240</v>
+      </c>
+      <c r="F110" t="n">
+        <v>80.515</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-141124.0739087435</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E111" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F111" t="n">
+        <v>37.3404</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-141086.7335087435</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E112" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10.6538</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-141097.3873087435</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E113" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F113" t="n">
+        <v>18.1889</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-141097.3873087435</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5245</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5245</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5245</v>
+      </c>
+      <c r="E114" t="n">
+        <v>5245</v>
+      </c>
+      <c r="F114" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-141193.8873087435</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E115" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F115" t="n">
+        <v>55.6059</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-141138.2814087436</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F116" t="n">
+        <v>165.6194</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-140972.6620087436</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F117" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-140990.6920087436</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E118" t="n">
+        <v>5265</v>
+      </c>
+      <c r="F118" t="n">
+        <v>19.0327</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-140971.6593087435</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C119" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E119" t="n">
+        <v>5265</v>
+      </c>
+      <c r="F119" t="n">
+        <v>13.0133</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-140971.6593087435</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E120" t="n">
+        <v>5265</v>
+      </c>
+      <c r="F120" t="n">
+        <v>8.1732</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-140971.6593087435</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E121" t="n">
+        <v>5265</v>
+      </c>
+      <c r="F121" t="n">
+        <v>6.1103</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-140971.6593087435</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F122" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-140985.3593087436</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-19 BackTest ETC.xlsx
+++ b/BackTest/2019-10-19 BackTest ETC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1341,6 +1371,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1384,6 +1415,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1427,6 +1459,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1470,6 +1503,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1513,6 +1547,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1556,6 +1591,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1599,6 +1635,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1642,6 +1679,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1685,6 +1723,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1728,6 +1767,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1771,6 +1811,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1814,6 +1855,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1857,6 +1899,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1900,6 +1943,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1943,6 +1987,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1984,6 +2029,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2025,6 +2071,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2066,6 +2113,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2107,6 +2155,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2148,6 +2197,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2189,6 +2239,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2230,6 +2281,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2271,6 +2323,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2312,6 +2365,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2353,6 +2407,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2394,6 +2449,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2435,6 +2491,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2476,6 +2533,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2517,6 +2575,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2558,6 +2617,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2599,6 +2659,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2640,6 +2701,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2681,6 +2743,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2722,6 +2785,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2763,6 +2827,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2804,6 +2869,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2845,6 +2911,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2886,6 +2953,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2927,6 +2995,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2968,6 +3037,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3009,6 +3079,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3050,6 +3121,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3091,6 +3163,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3132,6 +3205,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3173,6 +3247,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3214,6 +3289,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3255,6 +3331,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3296,6 +3373,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3337,6 +3415,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3378,6 +3457,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3419,6 +3499,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3460,6 +3541,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3501,6 +3583,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3542,6 +3625,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3583,6 +3667,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3624,6 +3709,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3665,6 +3751,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3706,6 +3793,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3747,6 +3835,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3788,6 +3877,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3829,6 +3919,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3870,6 +3961,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3911,6 +4003,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3952,6 +4045,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3993,6 +4087,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4034,6 +4129,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4075,6 +4171,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4116,6 +4213,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4157,6 +4255,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4198,6 +4297,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4239,6 +4339,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4280,6 +4381,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4321,6 +4423,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4362,6 +4465,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4403,6 +4507,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4444,6 +4549,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4485,6 +4591,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4526,6 +4633,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4567,6 +4675,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4608,6 +4717,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4649,6 +4759,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4690,6 +4801,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4731,6 +4843,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4772,6 +4885,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4813,6 +4927,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4854,6 +4969,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4895,6 +5011,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4936,6 +5053,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4977,6 +5095,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5018,6 +5137,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5059,6 +5179,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5100,6 +5221,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5141,6 +5263,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5182,6 +5305,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5223,6 +5347,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5264,6 +5389,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest ETC.xlsx
+++ b/BackTest/2019-10-19 BackTest ETC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5250</v>
+        <v>5235</v>
       </c>
       <c r="C2" t="n">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="D2" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="E2" t="n">
-        <v>5250</v>
+        <v>5220</v>
       </c>
       <c r="F2" t="n">
-        <v>212</v>
+        <v>2997.7028</v>
       </c>
       <c r="G2" t="n">
-        <v>-133021.8409747851</v>
+        <v>-133905.3867747851</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5255</v>
+        <v>5225</v>
       </c>
       <c r="C3" t="n">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="D3" t="n">
-        <v>5255</v>
+        <v>5235</v>
       </c>
       <c r="E3" t="n">
-        <v>5250</v>
+        <v>5215</v>
       </c>
       <c r="F3" t="n">
-        <v>131.8298</v>
+        <v>3693.0154</v>
       </c>
       <c r="G3" t="n">
-        <v>-133021.8409747851</v>
+        <v>-133905.3867747851</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5240</v>
+        <v>5220</v>
       </c>
       <c r="C4" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="D4" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="E4" t="n">
-        <v>5240</v>
+        <v>5220</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>3582.7097</v>
       </c>
       <c r="G4" t="n">
-        <v>-133031.8409747851</v>
+        <v>-133905.3867747851</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="C5" t="n">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="D5" t="n">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="E5" t="n">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="F5" t="n">
-        <v>70.021</v>
+        <v>1294.7457</v>
       </c>
       <c r="G5" t="n">
-        <v>-132961.8199747851</v>
+        <v>-133905.3867747851</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="C6" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="D6" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="E6" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="F6" t="n">
-        <v>24.28</v>
+        <v>541.3153</v>
       </c>
       <c r="G6" t="n">
-        <v>-132986.0999747851</v>
+        <v>-133905.3867747851</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -621,25 +621,25 @@
         <v>5230</v>
       </c>
       <c r="C7" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="D7" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="E7" t="n">
         <v>5230</v>
       </c>
       <c r="F7" t="n">
-        <v>1332.1782</v>
+        <v>206.342</v>
       </c>
       <c r="G7" t="n">
-        <v>-132986.0999747851</v>
+        <v>-133905.3867747851</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5245</v>
+        <v>5230</v>
       </c>
       <c r="C8" t="n">
-        <v>5245</v>
+        <v>5230</v>
       </c>
       <c r="D8" t="n">
-        <v>5245</v>
+        <v>5230</v>
       </c>
       <c r="E8" t="n">
-        <v>5245</v>
+        <v>5230</v>
       </c>
       <c r="F8" t="n">
-        <v>466.5862</v>
+        <v>17.8166</v>
       </c>
       <c r="G8" t="n">
-        <v>-132519.5137747851</v>
+        <v>-133905.3867747851</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -702,16 +702,16 @@
         <v>5230</v>
       </c>
       <c r="F9" t="n">
-        <v>225.3</v>
+        <v>222.2646</v>
       </c>
       <c r="G9" t="n">
-        <v>-132744.8137747851</v>
+        <v>-133905.3867747851</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5235</v>
+        <v>5230</v>
       </c>
       <c r="C10" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="D10" t="n">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="E10" t="n">
-        <v>5235</v>
+        <v>5230</v>
       </c>
       <c r="F10" t="n">
-        <v>66.7473</v>
+        <v>2907.6966</v>
       </c>
       <c r="G10" t="n">
-        <v>-132678.0664747851</v>
+        <v>-133905.3867747851</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>5235</v>
       </c>
       <c r="F11" t="n">
-        <v>28.9532</v>
+        <v>0.2618</v>
       </c>
       <c r="G11" t="n">
-        <v>-132707.0196747851</v>
+        <v>-133905.1249747851</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5225</v>
+        <v>5235</v>
       </c>
       <c r="C12" t="n">
-        <v>5225</v>
+        <v>5235</v>
       </c>
       <c r="D12" t="n">
-        <v>5225</v>
+        <v>5235</v>
       </c>
       <c r="E12" t="n">
-        <v>5225</v>
+        <v>5235</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>838</v>
       </c>
       <c r="G12" t="n">
-        <v>-132708.0196747851</v>
+        <v>-133905.1249747851</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -846,10 +846,10 @@
         <v>5235</v>
       </c>
       <c r="F13" t="n">
-        <v>99.65779999999999</v>
+        <v>254</v>
       </c>
       <c r="G13" t="n">
-        <v>-132608.3618747851</v>
+        <v>-133905.1249747851</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5225</v>
+        <v>5230</v>
       </c>
       <c r="C14" t="n">
-        <v>5225</v>
+        <v>5230</v>
       </c>
       <c r="D14" t="n">
-        <v>5225</v>
+        <v>5230</v>
       </c>
       <c r="E14" t="n">
-        <v>5225</v>
+        <v>5230</v>
       </c>
       <c r="F14" t="n">
-        <v>345.7639</v>
+        <v>12.3548</v>
       </c>
       <c r="G14" t="n">
-        <v>-132954.1257747851</v>
+        <v>-133917.4797747851</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>5230</v>
       </c>
       <c r="F15" t="n">
-        <v>210</v>
+        <v>285.4279</v>
       </c>
       <c r="G15" t="n">
-        <v>-132744.1257747851</v>
+        <v>-133917.4797747851</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5225</v>
+        <v>5230</v>
       </c>
       <c r="C16" t="n">
         <v>5230</v>
@@ -951,13 +951,13 @@
         <v>5230</v>
       </c>
       <c r="E16" t="n">
-        <v>5225</v>
+        <v>5230</v>
       </c>
       <c r="F16" t="n">
-        <v>342.4794</v>
+        <v>6.532</v>
       </c>
       <c r="G16" t="n">
-        <v>-132744.1257747851</v>
+        <v>-133917.4797747851</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5220</v>
+        <v>5230</v>
       </c>
       <c r="C17" t="n">
-        <v>5220</v>
+        <v>5230</v>
       </c>
       <c r="D17" t="n">
-        <v>5220</v>
+        <v>5230</v>
       </c>
       <c r="E17" t="n">
-        <v>5220</v>
+        <v>5230</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>392</v>
       </c>
       <c r="G17" t="n">
-        <v>-132745.1257747851</v>
+        <v>-133917.4797747851</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5215</v>
+        <v>5230</v>
       </c>
       <c r="C18" t="n">
-        <v>5215</v>
+        <v>5230</v>
       </c>
       <c r="D18" t="n">
-        <v>5220</v>
+        <v>5230</v>
       </c>
       <c r="E18" t="n">
-        <v>5210</v>
+        <v>5230</v>
       </c>
       <c r="F18" t="n">
-        <v>608.8151</v>
+        <v>285.4279</v>
       </c>
       <c r="G18" t="n">
-        <v>-133353.9408747851</v>
+        <v>-133917.4797747851</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5215</v>
+        <v>5230</v>
       </c>
       <c r="C19" t="n">
-        <v>5215</v>
+        <v>5230</v>
       </c>
       <c r="D19" t="n">
-        <v>5215</v>
+        <v>5230</v>
       </c>
       <c r="E19" t="n">
-        <v>5210</v>
+        <v>5230</v>
       </c>
       <c r="F19" t="n">
-        <v>192.9343</v>
+        <v>7.2645</v>
       </c>
       <c r="G19" t="n">
-        <v>-133353.9408747851</v>
+        <v>-133917.4797747851</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5220</v>
+        <v>5230</v>
       </c>
       <c r="C20" t="n">
-        <v>5220</v>
+        <v>5225</v>
       </c>
       <c r="D20" t="n">
-        <v>5220</v>
+        <v>5230</v>
       </c>
       <c r="E20" t="n">
-        <v>5220</v>
+        <v>5225</v>
       </c>
       <c r="F20" t="n">
-        <v>91.2</v>
+        <v>352.8078</v>
       </c>
       <c r="G20" t="n">
-        <v>-133262.7408747851</v>
+        <v>-134270.2875747851</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5230</v>
+        <v>5225</v>
       </c>
       <c r="C21" t="n">
-        <v>5230</v>
+        <v>5225</v>
       </c>
       <c r="D21" t="n">
-        <v>5230</v>
+        <v>5225</v>
       </c>
       <c r="E21" t="n">
-        <v>5230</v>
+        <v>5225</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>94.4406</v>
       </c>
       <c r="G21" t="n">
-        <v>-133261.7408747851</v>
+        <v>-134270.2875747851</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5215</v>
+        <v>5225</v>
       </c>
       <c r="C22" t="n">
-        <v>5215</v>
+        <v>5225</v>
       </c>
       <c r="D22" t="n">
-        <v>5215</v>
+        <v>5225</v>
       </c>
       <c r="E22" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>180.2012</v>
       </c>
       <c r="G22" t="n">
-        <v>-133262.7408747851</v>
+        <v>-134270.2875747851</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5210</v>
+        <v>5225</v>
       </c>
       <c r="C23" t="n">
-        <v>5220</v>
+        <v>5225</v>
       </c>
       <c r="D23" t="n">
-        <v>5220</v>
+        <v>5225</v>
       </c>
       <c r="E23" t="n">
-        <v>5210</v>
+        <v>5225</v>
       </c>
       <c r="F23" t="n">
-        <v>149.75</v>
+        <v>8.816000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>-133112.9908747851</v>
+        <v>-134270.2875747851</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5220</v>
+        <v>5225</v>
       </c>
       <c r="C24" t="n">
-        <v>5220</v>
+        <v>5225</v>
       </c>
       <c r="D24" t="n">
-        <v>5220</v>
+        <v>5225</v>
       </c>
       <c r="E24" t="n">
-        <v>5220</v>
+        <v>5225</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4</v>
+        <v>822.0875</v>
       </c>
       <c r="G24" t="n">
-        <v>-133112.9908747851</v>
+        <v>-134270.2875747851</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5210</v>
+        <v>5225</v>
       </c>
       <c r="C25" t="n">
-        <v>5210</v>
+        <v>5225</v>
       </c>
       <c r="D25" t="n">
-        <v>5210</v>
+        <v>5225</v>
       </c>
       <c r="E25" t="n">
-        <v>5210</v>
+        <v>5225</v>
       </c>
       <c r="F25" t="n">
-        <v>2.25</v>
+        <v>496.5187</v>
       </c>
       <c r="G25" t="n">
-        <v>-133115.2408747851</v>
+        <v>-134270.2875747851</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5205</v>
+        <v>5230</v>
       </c>
       <c r="C26" t="n">
-        <v>5205</v>
+        <v>5230</v>
       </c>
       <c r="D26" t="n">
-        <v>5205</v>
+        <v>5230</v>
       </c>
       <c r="E26" t="n">
-        <v>5205</v>
+        <v>5230</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>49.9288</v>
       </c>
       <c r="G26" t="n">
-        <v>-133116.2408747851</v>
+        <v>-134220.3587747851</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,35 +1338,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5215</v>
+        <v>5230</v>
       </c>
       <c r="C27" t="n">
-        <v>5215</v>
+        <v>5240</v>
       </c>
       <c r="D27" t="n">
-        <v>5215</v>
+        <v>5240</v>
       </c>
       <c r="E27" t="n">
-        <v>5215</v>
+        <v>5230</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>978.5413</v>
       </c>
       <c r="G27" t="n">
-        <v>-133115.2408747851</v>
+        <v>-133241.8174747851</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5205</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
@@ -1378,40 +1374,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5220</v>
+        <v>5240</v>
       </c>
       <c r="C28" t="n">
-        <v>5205</v>
+        <v>5240</v>
       </c>
       <c r="D28" t="n">
-        <v>5220</v>
+        <v>5240</v>
       </c>
       <c r="E28" t="n">
-        <v>5205</v>
+        <v>5240</v>
       </c>
       <c r="F28" t="n">
-        <v>2507.6765</v>
+        <v>59.6479</v>
       </c>
       <c r="G28" t="n">
-        <v>-135622.9173747851</v>
+        <v>-133241.8174747851</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>5215</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1422,40 +1410,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5215</v>
+        <v>5240</v>
       </c>
       <c r="C29" t="n">
-        <v>5215</v>
+        <v>5240</v>
       </c>
       <c r="D29" t="n">
-        <v>5215</v>
+        <v>5240</v>
       </c>
       <c r="E29" t="n">
-        <v>5215</v>
+        <v>5240</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4026845637583892</v>
+        <v>450</v>
       </c>
       <c r="G29" t="n">
-        <v>-135622.5146902213</v>
+        <v>-133241.8174747851</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1466,40 +1446,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5215</v>
+        <v>5245</v>
       </c>
       <c r="C30" t="n">
-        <v>5215</v>
+        <v>5245</v>
       </c>
       <c r="D30" t="n">
-        <v>5215</v>
+        <v>5245</v>
       </c>
       <c r="E30" t="n">
-        <v>5215</v>
+        <v>5245</v>
       </c>
       <c r="F30" t="n">
-        <v>25.9175</v>
+        <v>7.9765</v>
       </c>
       <c r="G30" t="n">
-        <v>-135622.5146902213</v>
+        <v>-133233.8409747851</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>5215</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1510,40 +1482,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5210</v>
+        <v>5250</v>
       </c>
       <c r="C31" t="n">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="D31" t="n">
-        <v>5210</v>
+        <v>5250</v>
       </c>
       <c r="E31" t="n">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="F31" t="n">
-        <v>382.3831</v>
+        <v>212</v>
       </c>
       <c r="G31" t="n">
-        <v>-136004.8977902214</v>
+        <v>-133021.8409747851</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>5215</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1554,40 +1518,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5200</v>
+        <v>5255</v>
       </c>
       <c r="C32" t="n">
-        <v>5210</v>
+        <v>5250</v>
       </c>
       <c r="D32" t="n">
-        <v>5210</v>
+        <v>5255</v>
       </c>
       <c r="E32" t="n">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="F32" t="n">
-        <v>23.2227</v>
+        <v>131.8298</v>
       </c>
       <c r="G32" t="n">
-        <v>-135981.6750902213</v>
+        <v>-133021.8409747851</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>5200</v>
-      </c>
-      <c r="K32" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1598,40 +1554,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5200</v>
+        <v>5240</v>
       </c>
       <c r="C33" t="n">
-        <v>5200</v>
+        <v>5240</v>
       </c>
       <c r="D33" t="n">
-        <v>5200</v>
+        <v>5240</v>
       </c>
       <c r="E33" t="n">
-        <v>5200</v>
+        <v>5240</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>-135983.6750902213</v>
+        <v>-133031.8409747851</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>5210</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1642,40 +1590,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="C34" t="n">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="D34" t="n">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="E34" t="n">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="F34" t="n">
-        <v>150</v>
+        <v>70.021</v>
       </c>
       <c r="G34" t="n">
-        <v>-135983.6750902213</v>
+        <v>-132961.8199747851</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>5200</v>
-      </c>
-      <c r="K34" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1686,40 +1626,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5200</v>
+        <v>5240</v>
       </c>
       <c r="C35" t="n">
-        <v>5200</v>
+        <v>5240</v>
       </c>
       <c r="D35" t="n">
-        <v>5200</v>
+        <v>5240</v>
       </c>
       <c r="E35" t="n">
-        <v>5200</v>
+        <v>5240</v>
       </c>
       <c r="F35" t="n">
-        <v>112.4507</v>
+        <v>24.28</v>
       </c>
       <c r="G35" t="n">
-        <v>-135983.6750902213</v>
+        <v>-132986.0999747851</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>5200</v>
-      </c>
-      <c r="K35" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1730,40 +1662,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5195</v>
+        <v>5230</v>
       </c>
       <c r="C36" t="n">
-        <v>5195</v>
+        <v>5240</v>
       </c>
       <c r="D36" t="n">
-        <v>5195</v>
+        <v>5240</v>
       </c>
       <c r="E36" t="n">
-        <v>5195</v>
+        <v>5230</v>
       </c>
       <c r="F36" t="n">
-        <v>200.0012</v>
+        <v>1332.1782</v>
       </c>
       <c r="G36" t="n">
-        <v>-136183.6762902213</v>
+        <v>-132986.0999747851</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>5200</v>
-      </c>
-      <c r="K36" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1774,40 +1698,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5210</v>
+        <v>5245</v>
       </c>
       <c r="C37" t="n">
-        <v>5210</v>
+        <v>5245</v>
       </c>
       <c r="D37" t="n">
-        <v>5210</v>
+        <v>5245</v>
       </c>
       <c r="E37" t="n">
-        <v>5210</v>
+        <v>5245</v>
       </c>
       <c r="F37" t="n">
-        <v>26.9</v>
+        <v>466.5862</v>
       </c>
       <c r="G37" t="n">
-        <v>-136156.7762902213</v>
+        <v>-132519.5137747851</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>5195</v>
-      </c>
-      <c r="K37" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1818,40 +1734,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5210</v>
+        <v>5230</v>
       </c>
       <c r="C38" t="n">
-        <v>5210</v>
+        <v>5230</v>
       </c>
       <c r="D38" t="n">
-        <v>5210</v>
+        <v>5230</v>
       </c>
       <c r="E38" t="n">
-        <v>5210</v>
+        <v>5230</v>
       </c>
       <c r="F38" t="n">
-        <v>13.5</v>
+        <v>225.3</v>
       </c>
       <c r="G38" t="n">
-        <v>-136156.7762902213</v>
+        <v>-132744.8137747851</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>5210</v>
-      </c>
-      <c r="K38" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1862,40 +1770,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5200</v>
+        <v>5235</v>
       </c>
       <c r="C39" t="n">
-        <v>5200</v>
+        <v>5240</v>
       </c>
       <c r="D39" t="n">
-        <v>5205</v>
+        <v>5240</v>
       </c>
       <c r="E39" t="n">
-        <v>5175</v>
+        <v>5235</v>
       </c>
       <c r="F39" t="n">
-        <v>3210.3731</v>
+        <v>66.7473</v>
       </c>
       <c r="G39" t="n">
-        <v>-139367.1493902213</v>
+        <v>-132678.0664747851</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>5210</v>
-      </c>
-      <c r="K39" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1906,40 +1806,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5200</v>
+        <v>5235</v>
       </c>
       <c r="C40" t="n">
-        <v>5205</v>
+        <v>5235</v>
       </c>
       <c r="D40" t="n">
-        <v>5205</v>
+        <v>5235</v>
       </c>
       <c r="E40" t="n">
-        <v>5200</v>
+        <v>5235</v>
       </c>
       <c r="F40" t="n">
-        <v>97.9952</v>
+        <v>28.9532</v>
       </c>
       <c r="G40" t="n">
-        <v>-139269.1541902213</v>
+        <v>-132707.0196747851</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>5200</v>
-      </c>
-      <c r="K40" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1950,40 +1842,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5205</v>
+        <v>5225</v>
       </c>
       <c r="C41" t="n">
-        <v>5205</v>
+        <v>5225</v>
       </c>
       <c r="D41" t="n">
-        <v>5205</v>
+        <v>5225</v>
       </c>
       <c r="E41" t="n">
-        <v>5205</v>
+        <v>5225</v>
       </c>
       <c r="F41" t="n">
-        <v>72.28270000000001</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>-139269.1541902213</v>
+        <v>-132708.0196747851</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K41" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1994,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5205</v>
+        <v>5235</v>
       </c>
       <c r="C42" t="n">
-        <v>5205</v>
+        <v>5235</v>
       </c>
       <c r="D42" t="n">
-        <v>5205</v>
+        <v>5235</v>
       </c>
       <c r="E42" t="n">
-        <v>5205</v>
+        <v>5235</v>
       </c>
       <c r="F42" t="n">
-        <v>10.1</v>
+        <v>99.65779999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-139269.1541902213</v>
+        <v>-132608.3618747851</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2018,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2036,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5205</v>
+        <v>5225</v>
       </c>
       <c r="C43" t="n">
-        <v>5205</v>
+        <v>5225</v>
       </c>
       <c r="D43" t="n">
-        <v>5205</v>
+        <v>5225</v>
       </c>
       <c r="E43" t="n">
-        <v>5205</v>
+        <v>5225</v>
       </c>
       <c r="F43" t="n">
-        <v>6.1385</v>
+        <v>345.7639</v>
       </c>
       <c r="G43" t="n">
-        <v>-139269.1541902213</v>
+        <v>-132954.1257747851</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2060,14 +1938,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5210</v>
+        <v>5230</v>
       </c>
       <c r="C44" t="n">
-        <v>5210</v>
+        <v>5230</v>
       </c>
       <c r="D44" t="n">
-        <v>5210</v>
+        <v>5230</v>
       </c>
       <c r="E44" t="n">
-        <v>5210</v>
+        <v>5230</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4030710172744721</v>
+        <v>210</v>
       </c>
       <c r="G44" t="n">
-        <v>-139268.7511192041</v>
+        <v>-132744.1257747851</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2102,14 +1974,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2120,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5200</v>
+        <v>5225</v>
       </c>
       <c r="C45" t="n">
-        <v>5205</v>
+        <v>5230</v>
       </c>
       <c r="D45" t="n">
-        <v>5205</v>
+        <v>5230</v>
       </c>
       <c r="E45" t="n">
-        <v>5200</v>
+        <v>5225</v>
       </c>
       <c r="F45" t="n">
-        <v>174.326</v>
+        <v>342.4794</v>
       </c>
       <c r="G45" t="n">
-        <v>-139443.0771192041</v>
+        <v>-132744.1257747851</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2144,14 +2010,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2162,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="C46" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="D46" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="E46" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="F46" t="n">
-        <v>277.0021</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>-139166.0750192041</v>
+        <v>-132745.1257747851</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2186,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2210,16 +2064,16 @@
         <v>5215</v>
       </c>
       <c r="D47" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="E47" t="n">
-        <v>5215</v>
+        <v>5210</v>
       </c>
       <c r="F47" t="n">
-        <v>7.4491</v>
+        <v>608.8151</v>
       </c>
       <c r="G47" t="n">
-        <v>-139166.0750192041</v>
+        <v>-133353.9408747851</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2228,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2255,13 +2103,13 @@
         <v>5215</v>
       </c>
       <c r="E48" t="n">
-        <v>5215</v>
+        <v>5210</v>
       </c>
       <c r="F48" t="n">
-        <v>70</v>
+        <v>192.9343</v>
       </c>
       <c r="G48" t="n">
-        <v>-139166.0750192041</v>
+        <v>-133353.9408747851</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2270,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="C49" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="D49" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="E49" t="n">
-        <v>5215</v>
+        <v>5220</v>
       </c>
       <c r="F49" t="n">
-        <v>14.0392</v>
+        <v>91.2</v>
       </c>
       <c r="G49" t="n">
-        <v>-139166.0750192041</v>
+        <v>-133262.7408747851</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2312,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2330,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5215</v>
+        <v>5230</v>
       </c>
       <c r="C50" t="n">
-        <v>5215</v>
+        <v>5230</v>
       </c>
       <c r="D50" t="n">
-        <v>5215</v>
+        <v>5230</v>
       </c>
       <c r="E50" t="n">
-        <v>5215</v>
+        <v>5230</v>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>-139166.0750192041</v>
+        <v>-133261.7408747851</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2354,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2372,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5225</v>
+        <v>5215</v>
       </c>
       <c r="C51" t="n">
-        <v>5225</v>
+        <v>5215</v>
       </c>
       <c r="D51" t="n">
-        <v>5225</v>
+        <v>5215</v>
       </c>
       <c r="E51" t="n">
-        <v>5225</v>
+        <v>5215</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1913875598086124</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>-139165.8836316442</v>
+        <v>-133262.7408747851</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2396,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2414,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5225</v>
+        <v>5210</v>
       </c>
       <c r="C52" t="n">
-        <v>5235</v>
+        <v>5220</v>
       </c>
       <c r="D52" t="n">
-        <v>5235</v>
+        <v>5220</v>
       </c>
       <c r="E52" t="n">
-        <v>5225</v>
+        <v>5210</v>
       </c>
       <c r="F52" t="n">
-        <v>15.731</v>
+        <v>149.75</v>
       </c>
       <c r="G52" t="n">
-        <v>-139150.1526316442</v>
+        <v>-133112.9908747851</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2438,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2456,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5235</v>
+        <v>5220</v>
       </c>
       <c r="C53" t="n">
-        <v>5235</v>
+        <v>5220</v>
       </c>
       <c r="D53" t="n">
-        <v>5235</v>
+        <v>5220</v>
       </c>
       <c r="E53" t="n">
-        <v>5235</v>
+        <v>5220</v>
       </c>
       <c r="F53" t="n">
-        <v>96.7</v>
+        <v>0.4</v>
       </c>
       <c r="G53" t="n">
-        <v>-139150.1526316442</v>
+        <v>-133112.9908747851</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2480,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5245</v>
+        <v>5210</v>
       </c>
       <c r="C54" t="n">
-        <v>5255</v>
+        <v>5210</v>
       </c>
       <c r="D54" t="n">
-        <v>5255</v>
+        <v>5210</v>
       </c>
       <c r="E54" t="n">
-        <v>5245</v>
+        <v>5210</v>
       </c>
       <c r="F54" t="n">
-        <v>2052.7939</v>
+        <v>2.25</v>
       </c>
       <c r="G54" t="n">
-        <v>-137097.3587316443</v>
+        <v>-133115.2408747851</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2522,14 +2334,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2540,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5260</v>
+        <v>5205</v>
       </c>
       <c r="C55" t="n">
-        <v>5260</v>
+        <v>5205</v>
       </c>
       <c r="D55" t="n">
-        <v>5260</v>
+        <v>5205</v>
       </c>
       <c r="E55" t="n">
-        <v>5260</v>
+        <v>5205</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>-137097.2587316443</v>
+        <v>-133116.2408747851</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2564,14 +2370,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2582,38 +2382,36 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5260</v>
+        <v>5215</v>
       </c>
       <c r="C56" t="n">
-        <v>5260</v>
+        <v>5215</v>
       </c>
       <c r="D56" t="n">
-        <v>5260</v>
+        <v>5215</v>
       </c>
       <c r="E56" t="n">
-        <v>5260</v>
+        <v>5215</v>
       </c>
       <c r="F56" t="n">
-        <v>17.5585</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>-137097.2587316443</v>
+        <v>-133115.2408747851</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5205</v>
+      </c>
       <c r="K56" t="n">
         <v>5205</v>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2624,36 +2422,38 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5255</v>
+        <v>5220</v>
       </c>
       <c r="C57" t="n">
-        <v>5255</v>
+        <v>5205</v>
       </c>
       <c r="D57" t="n">
-        <v>5255</v>
+        <v>5220</v>
       </c>
       <c r="E57" t="n">
-        <v>5255</v>
+        <v>5205</v>
       </c>
       <c r="F57" t="n">
-        <v>7.4314</v>
+        <v>2507.6765</v>
       </c>
       <c r="G57" t="n">
-        <v>-137104.6901316443</v>
+        <v>-135622.9173747851</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5215</v>
+      </c>
       <c r="K57" t="n">
         <v>5205</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -2666,30 +2466,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5255</v>
+        <v>5215</v>
       </c>
       <c r="C58" t="n">
-        <v>5255</v>
+        <v>5215</v>
       </c>
       <c r="D58" t="n">
-        <v>5255</v>
+        <v>5215</v>
       </c>
       <c r="E58" t="n">
-        <v>5255</v>
+        <v>5215</v>
       </c>
       <c r="F58" t="n">
-        <v>42.5686</v>
+        <v>0.4026845637583892</v>
       </c>
       <c r="G58" t="n">
-        <v>-137104.6901316443</v>
+        <v>-135622.5146902213</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5205</v>
+      </c>
       <c r="K58" t="n">
         <v>5205</v>
       </c>
@@ -2708,30 +2510,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5240</v>
+        <v>5215</v>
       </c>
       <c r="C59" t="n">
-        <v>5230</v>
+        <v>5215</v>
       </c>
       <c r="D59" t="n">
-        <v>5240</v>
+        <v>5215</v>
       </c>
       <c r="E59" t="n">
-        <v>5230</v>
+        <v>5215</v>
       </c>
       <c r="F59" t="n">
-        <v>137.5856</v>
+        <v>25.9175</v>
       </c>
       <c r="G59" t="n">
-        <v>-137242.2757316442</v>
+        <v>-135622.5146902213</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5215</v>
+      </c>
       <c r="K59" t="n">
         <v>5205</v>
       </c>
@@ -2750,22 +2554,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5230</v>
+        <v>5210</v>
       </c>
       <c r="C60" t="n">
-        <v>5230</v>
+        <v>5200</v>
       </c>
       <c r="D60" t="n">
-        <v>5230</v>
+        <v>5210</v>
       </c>
       <c r="E60" t="n">
-        <v>5230</v>
+        <v>5200</v>
       </c>
       <c r="F60" t="n">
-        <v>431.1184</v>
+        <v>382.3831</v>
       </c>
       <c r="G60" t="n">
-        <v>-137242.2757316442</v>
+        <v>-136004.8977902214</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2792,30 +2596,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5230</v>
+        <v>5200</v>
       </c>
       <c r="C61" t="n">
-        <v>5230</v>
+        <v>5210</v>
       </c>
       <c r="D61" t="n">
-        <v>5230</v>
+        <v>5210</v>
       </c>
       <c r="E61" t="n">
-        <v>5230</v>
+        <v>5200</v>
       </c>
       <c r="F61" t="n">
-        <v>21.2357</v>
+        <v>23.2227</v>
       </c>
       <c r="G61" t="n">
-        <v>-137242.2757316442</v>
+        <v>-135981.6750902213</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5200</v>
+      </c>
       <c r="K61" t="n">
         <v>5205</v>
       </c>
@@ -2834,22 +2640,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5235</v>
+        <v>5200</v>
       </c>
       <c r="C62" t="n">
-        <v>5235</v>
+        <v>5200</v>
       </c>
       <c r="D62" t="n">
-        <v>5235</v>
+        <v>5200</v>
       </c>
       <c r="E62" t="n">
-        <v>5235</v>
+        <v>5200</v>
       </c>
       <c r="F62" t="n">
-        <v>128.1794</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>-137114.0963316443</v>
+        <v>-135983.6750902213</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2876,30 +2682,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5220</v>
+        <v>5200</v>
       </c>
       <c r="C63" t="n">
-        <v>5220</v>
+        <v>5200</v>
       </c>
       <c r="D63" t="n">
-        <v>5220</v>
+        <v>5200</v>
       </c>
       <c r="E63" t="n">
-        <v>5220</v>
+        <v>5200</v>
       </c>
       <c r="F63" t="n">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="G63" t="n">
-        <v>-137353.0963316443</v>
+        <v>-135983.6750902213</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5200</v>
+      </c>
       <c r="K63" t="n">
         <v>5205</v>
       </c>
@@ -2918,30 +2726,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5235</v>
+        <v>5200</v>
       </c>
       <c r="C64" t="n">
-        <v>5235</v>
+        <v>5200</v>
       </c>
       <c r="D64" t="n">
-        <v>5235</v>
+        <v>5200</v>
       </c>
       <c r="E64" t="n">
-        <v>5235</v>
+        <v>5200</v>
       </c>
       <c r="F64" t="n">
-        <v>87.2175</v>
+        <v>112.4507</v>
       </c>
       <c r="G64" t="n">
-        <v>-137265.8788316443</v>
+        <v>-135983.6750902213</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>5200</v>
+      </c>
       <c r="K64" t="n">
         <v>5205</v>
       </c>
@@ -2960,30 +2770,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5240</v>
+        <v>5195</v>
       </c>
       <c r="C65" t="n">
-        <v>5240</v>
+        <v>5195</v>
       </c>
       <c r="D65" t="n">
-        <v>5240</v>
+        <v>5195</v>
       </c>
       <c r="E65" t="n">
-        <v>5240</v>
+        <v>5195</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2120229007633588</v>
+        <v>200.0012</v>
       </c>
       <c r="G65" t="n">
-        <v>-137265.6668087435</v>
+        <v>-136183.6762902213</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>5200</v>
+      </c>
       <c r="K65" t="n">
         <v>5205</v>
       </c>
@@ -3002,30 +2814,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5240</v>
+        <v>5210</v>
       </c>
       <c r="C66" t="n">
-        <v>5240</v>
+        <v>5210</v>
       </c>
       <c r="D66" t="n">
-        <v>5240</v>
+        <v>5210</v>
       </c>
       <c r="E66" t="n">
-        <v>5240</v>
+        <v>5210</v>
       </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>26.9</v>
       </c>
       <c r="G66" t="n">
-        <v>-137265.6668087435</v>
+        <v>-136156.7762902213</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>5195</v>
+      </c>
       <c r="K66" t="n">
         <v>5205</v>
       </c>
@@ -3044,30 +2858,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5235</v>
+        <v>5210</v>
       </c>
       <c r="C67" t="n">
-        <v>5235</v>
+        <v>5210</v>
       </c>
       <c r="D67" t="n">
-        <v>5235</v>
+        <v>5210</v>
       </c>
       <c r="E67" t="n">
-        <v>5235</v>
+        <v>5210</v>
       </c>
       <c r="F67" t="n">
-        <v>103.1541</v>
+        <v>13.5</v>
       </c>
       <c r="G67" t="n">
-        <v>-137368.8209087435</v>
+        <v>-136156.7762902213</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>5210</v>
+      </c>
       <c r="K67" t="n">
         <v>5205</v>
       </c>
@@ -3086,30 +2902,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5220</v>
+        <v>5200</v>
       </c>
       <c r="C68" t="n">
-        <v>5220</v>
+        <v>5200</v>
       </c>
       <c r="D68" t="n">
-        <v>5220</v>
+        <v>5205</v>
       </c>
       <c r="E68" t="n">
-        <v>5220</v>
+        <v>5175</v>
       </c>
       <c r="F68" t="n">
-        <v>349.3268</v>
+        <v>3210.3731</v>
       </c>
       <c r="G68" t="n">
-        <v>-137718.1477087435</v>
+        <v>-139367.1493902213</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>5210</v>
+      </c>
       <c r="K68" t="n">
         <v>5205</v>
       </c>
@@ -3128,30 +2946,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5220</v>
+        <v>5200</v>
       </c>
       <c r="C69" t="n">
-        <v>5220</v>
+        <v>5205</v>
       </c>
       <c r="D69" t="n">
-        <v>5220</v>
+        <v>5205</v>
       </c>
       <c r="E69" t="n">
-        <v>5220</v>
+        <v>5200</v>
       </c>
       <c r="F69" t="n">
-        <v>215.5916</v>
+        <v>97.9952</v>
       </c>
       <c r="G69" t="n">
-        <v>-137718.1477087435</v>
+        <v>-139269.1541902213</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5200</v>
+      </c>
       <c r="K69" t="n">
         <v>5205</v>
       </c>
@@ -3170,30 +2990,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5215</v>
+        <v>5205</v>
       </c>
       <c r="C70" t="n">
-        <v>5210</v>
+        <v>5205</v>
       </c>
       <c r="D70" t="n">
-        <v>5215</v>
+        <v>5205</v>
       </c>
       <c r="E70" t="n">
-        <v>5210</v>
+        <v>5205</v>
       </c>
       <c r="F70" t="n">
-        <v>300</v>
+        <v>72.28270000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>-138018.1477087435</v>
+        <v>-139269.1541902213</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5205</v>
+      </c>
       <c r="K70" t="n">
         <v>5205</v>
       </c>
@@ -3212,30 +3034,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5240</v>
+        <v>5205</v>
       </c>
       <c r="C71" t="n">
-        <v>5240</v>
+        <v>5205</v>
       </c>
       <c r="D71" t="n">
-        <v>5240</v>
+        <v>5205</v>
       </c>
       <c r="E71" t="n">
-        <v>5240</v>
+        <v>5205</v>
       </c>
       <c r="F71" t="n">
-        <v>99.5</v>
+        <v>10.1</v>
       </c>
       <c r="G71" t="n">
-        <v>-137918.6477087435</v>
+        <v>-139269.1541902213</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5205</v>
+      </c>
       <c r="K71" t="n">
         <v>5205</v>
       </c>
@@ -3254,30 +3078,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5245</v>
+        <v>5205</v>
       </c>
       <c r="C72" t="n">
-        <v>5245</v>
+        <v>5205</v>
       </c>
       <c r="D72" t="n">
-        <v>5245</v>
+        <v>5205</v>
       </c>
       <c r="E72" t="n">
-        <v>5245</v>
+        <v>5205</v>
       </c>
       <c r="F72" t="n">
-        <v>4.0994</v>
+        <v>6.1385</v>
       </c>
       <c r="G72" t="n">
-        <v>-137914.5483087435</v>
+        <v>-139269.1541902213</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5205</v>
+      </c>
       <c r="K72" t="n">
         <v>5205</v>
       </c>
@@ -3296,30 +3122,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5240</v>
+        <v>5210</v>
       </c>
       <c r="C73" t="n">
-        <v>5240</v>
+        <v>5210</v>
       </c>
       <c r="D73" t="n">
-        <v>5240</v>
+        <v>5210</v>
       </c>
       <c r="E73" t="n">
-        <v>5240</v>
+        <v>5210</v>
       </c>
       <c r="F73" t="n">
-        <v>18.8061</v>
+        <v>0.4030710172744721</v>
       </c>
       <c r="G73" t="n">
-        <v>-137933.3544087435</v>
+        <v>-139268.7511192041</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>5205</v>
+      </c>
       <c r="K73" t="n">
         <v>5205</v>
       </c>
@@ -3338,30 +3166,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5230</v>
+        <v>5200</v>
       </c>
       <c r="C74" t="n">
-        <v>5230</v>
+        <v>5205</v>
       </c>
       <c r="D74" t="n">
-        <v>5230</v>
+        <v>5205</v>
       </c>
       <c r="E74" t="n">
-        <v>5230</v>
+        <v>5200</v>
       </c>
       <c r="F74" t="n">
-        <v>3.1133</v>
+        <v>174.326</v>
       </c>
       <c r="G74" t="n">
-        <v>-137936.4677087435</v>
+        <v>-139443.0771192041</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>5210</v>
+      </c>
       <c r="K74" t="n">
         <v>5205</v>
       </c>
@@ -3380,30 +3210,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5235</v>
+        <v>5215</v>
       </c>
       <c r="C75" t="n">
-        <v>5235</v>
+        <v>5215</v>
       </c>
       <c r="D75" t="n">
-        <v>5235</v>
+        <v>5215</v>
       </c>
       <c r="E75" t="n">
-        <v>5235</v>
+        <v>5215</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2</v>
+        <v>277.0021</v>
       </c>
       <c r="G75" t="n">
-        <v>-137936.2677087435</v>
+        <v>-139166.0750192041</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>5205</v>
+      </c>
       <c r="K75" t="n">
         <v>5205</v>
       </c>
@@ -3422,30 +3254,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5235</v>
+        <v>5215</v>
       </c>
       <c r="C76" t="n">
-        <v>5240</v>
+        <v>5215</v>
       </c>
       <c r="D76" t="n">
-        <v>5240</v>
+        <v>5215</v>
       </c>
       <c r="E76" t="n">
-        <v>5235</v>
+        <v>5215</v>
       </c>
       <c r="F76" t="n">
-        <v>67.2</v>
+        <v>7.4491</v>
       </c>
       <c r="G76" t="n">
-        <v>-137869.0677087435</v>
+        <v>-139166.0750192041</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>5215</v>
+      </c>
       <c r="K76" t="n">
         <v>5205</v>
       </c>
@@ -3464,30 +3298,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5235</v>
+        <v>5215</v>
       </c>
       <c r="C77" t="n">
-        <v>5220</v>
+        <v>5215</v>
       </c>
       <c r="D77" t="n">
-        <v>5235</v>
+        <v>5215</v>
       </c>
       <c r="E77" t="n">
-        <v>5220</v>
+        <v>5215</v>
       </c>
       <c r="F77" t="n">
-        <v>2315.8311</v>
+        <v>70</v>
       </c>
       <c r="G77" t="n">
-        <v>-140184.8988087435</v>
+        <v>-139166.0750192041</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5215</v>
+      </c>
       <c r="K77" t="n">
         <v>5205</v>
       </c>
@@ -3506,30 +3342,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5240</v>
+        <v>5215</v>
       </c>
       <c r="C78" t="n">
-        <v>5240</v>
+        <v>5215</v>
       </c>
       <c r="D78" t="n">
-        <v>5240</v>
+        <v>5215</v>
       </c>
       <c r="E78" t="n">
-        <v>5240</v>
+        <v>5215</v>
       </c>
       <c r="F78" t="n">
-        <v>216.8356</v>
+        <v>14.0392</v>
       </c>
       <c r="G78" t="n">
-        <v>-139968.0632087435</v>
+        <v>-139166.0750192041</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>5215</v>
+      </c>
       <c r="K78" t="n">
         <v>5205</v>
       </c>
@@ -3548,22 +3386,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5250</v>
+        <v>5215</v>
       </c>
       <c r="C79" t="n">
-        <v>5255</v>
+        <v>5215</v>
       </c>
       <c r="D79" t="n">
-        <v>5255</v>
+        <v>5215</v>
       </c>
       <c r="E79" t="n">
-        <v>5250</v>
+        <v>5215</v>
       </c>
       <c r="F79" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>-139862.0632087435</v>
+        <v>-139166.0750192041</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3590,22 +3428,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5255</v>
+        <v>5225</v>
       </c>
       <c r="C80" t="n">
-        <v>5250</v>
+        <v>5225</v>
       </c>
       <c r="D80" t="n">
-        <v>5270</v>
+        <v>5225</v>
       </c>
       <c r="E80" t="n">
-        <v>5250</v>
+        <v>5225</v>
       </c>
       <c r="F80" t="n">
-        <v>1568.8211</v>
+        <v>0.1913875598086124</v>
       </c>
       <c r="G80" t="n">
-        <v>-141430.8843087435</v>
+        <v>-139165.8836316442</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3632,22 +3470,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5260</v>
+        <v>5225</v>
       </c>
       <c r="C81" t="n">
-        <v>5260</v>
+        <v>5235</v>
       </c>
       <c r="D81" t="n">
-        <v>5260</v>
+        <v>5235</v>
       </c>
       <c r="E81" t="n">
-        <v>5260</v>
+        <v>5225</v>
       </c>
       <c r="F81" t="n">
-        <v>7.4208</v>
+        <v>15.731</v>
       </c>
       <c r="G81" t="n">
-        <v>-141423.4635087435</v>
+        <v>-139150.1526316442</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3674,22 +3512,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="C82" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="D82" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="E82" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="F82" t="n">
-        <v>45.0458</v>
+        <v>96.7</v>
       </c>
       <c r="G82" t="n">
-        <v>-141378.4177087435</v>
+        <v>-139150.1526316442</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3716,22 +3554,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5265</v>
+        <v>5245</v>
       </c>
       <c r="C83" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="D83" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="E83" t="n">
-        <v>5265</v>
+        <v>5245</v>
       </c>
       <c r="F83" t="n">
-        <v>37.9868</v>
+        <v>2052.7939</v>
       </c>
       <c r="G83" t="n">
-        <v>-141378.4177087435</v>
+        <v>-137097.3587316443</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3758,22 +3596,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="C84" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="D84" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="E84" t="n">
-        <v>5250</v>
+        <v>5260</v>
       </c>
       <c r="F84" t="n">
-        <v>18.7591</v>
+        <v>0.1</v>
       </c>
       <c r="G84" t="n">
-        <v>-141397.1768087435</v>
+        <v>-137097.2587316443</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3812,10 +3650,10 @@
         <v>5260</v>
       </c>
       <c r="F85" t="n">
-        <v>300.2991</v>
+        <v>17.5585</v>
       </c>
       <c r="G85" t="n">
-        <v>-141096.8777087435</v>
+        <v>-137097.2587316443</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3842,22 +3680,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5270</v>
+        <v>5255</v>
       </c>
       <c r="C86" t="n">
-        <v>5285</v>
+        <v>5255</v>
       </c>
       <c r="D86" t="n">
-        <v>5285</v>
+        <v>5255</v>
       </c>
       <c r="E86" t="n">
-        <v>5270</v>
+        <v>5255</v>
       </c>
       <c r="F86" t="n">
-        <v>801.4845</v>
+        <v>7.4314</v>
       </c>
       <c r="G86" t="n">
-        <v>-140295.3932087435</v>
+        <v>-137104.6901316443</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3884,22 +3722,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="C87" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="D87" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="E87" t="n">
-        <v>5265</v>
+        <v>5255</v>
       </c>
       <c r="F87" t="n">
-        <v>12.9125</v>
+        <v>42.5686</v>
       </c>
       <c r="G87" t="n">
-        <v>-140308.3057087435</v>
+        <v>-137104.6901316443</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3926,22 +3764,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5265</v>
+        <v>5240</v>
       </c>
       <c r="C88" t="n">
-        <v>5265</v>
+        <v>5230</v>
       </c>
       <c r="D88" t="n">
-        <v>5265</v>
+        <v>5240</v>
       </c>
       <c r="E88" t="n">
-        <v>5265</v>
+        <v>5230</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>137.5856</v>
       </c>
       <c r="G88" t="n">
-        <v>-140308.3057087435</v>
+        <v>-137242.2757316442</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3968,22 +3806,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5265</v>
+        <v>5230</v>
       </c>
       <c r="C89" t="n">
-        <v>5265</v>
+        <v>5230</v>
       </c>
       <c r="D89" t="n">
-        <v>5270</v>
+        <v>5230</v>
       </c>
       <c r="E89" t="n">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="F89" t="n">
-        <v>489.9112</v>
+        <v>431.1184</v>
       </c>
       <c r="G89" t="n">
-        <v>-140308.3057087435</v>
+        <v>-137242.2757316442</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4010,22 +3848,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5260</v>
+        <v>5230</v>
       </c>
       <c r="C90" t="n">
-        <v>5260</v>
+        <v>5230</v>
       </c>
       <c r="D90" t="n">
-        <v>5260</v>
+        <v>5230</v>
       </c>
       <c r="E90" t="n">
-        <v>5260</v>
+        <v>5230</v>
       </c>
       <c r="F90" t="n">
-        <v>12.2063</v>
+        <v>21.2357</v>
       </c>
       <c r="G90" t="n">
-        <v>-140320.5120087435</v>
+        <v>-137242.2757316442</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4052,22 +3890,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5270</v>
+        <v>5235</v>
       </c>
       <c r="C91" t="n">
-        <v>5270</v>
+        <v>5235</v>
       </c>
       <c r="D91" t="n">
-        <v>5270</v>
+        <v>5235</v>
       </c>
       <c r="E91" t="n">
-        <v>5270</v>
+        <v>5235</v>
       </c>
       <c r="F91" t="n">
-        <v>131.928</v>
+        <v>128.1794</v>
       </c>
       <c r="G91" t="n">
-        <v>-140188.5840087435</v>
+        <v>-137114.0963316443</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4094,22 +3932,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5265</v>
+        <v>5220</v>
       </c>
       <c r="C92" t="n">
-        <v>5265</v>
+        <v>5220</v>
       </c>
       <c r="D92" t="n">
-        <v>5265</v>
+        <v>5220</v>
       </c>
       <c r="E92" t="n">
-        <v>5265</v>
+        <v>5220</v>
       </c>
       <c r="F92" t="n">
-        <v>8.5123</v>
+        <v>239</v>
       </c>
       <c r="G92" t="n">
-        <v>-140197.0963087435</v>
+        <v>-137353.0963316443</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4136,22 +3974,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="C93" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="D93" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="E93" t="n">
-        <v>5265</v>
+        <v>5235</v>
       </c>
       <c r="F93" t="n">
-        <v>66.6003</v>
+        <v>87.2175</v>
       </c>
       <c r="G93" t="n">
-        <v>-140197.0963087435</v>
+        <v>-137265.8788316443</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4178,22 +4016,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="C94" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="D94" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="E94" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="F94" t="n">
-        <v>98.93859999999999</v>
+        <v>0.2120229007633588</v>
       </c>
       <c r="G94" t="n">
-        <v>-140296.0349087435</v>
+        <v>-137265.6668087435</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4220,22 +4058,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="C95" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="D95" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="E95" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="F95" t="n">
-        <v>32.0614</v>
+        <v>4</v>
       </c>
       <c r="G95" t="n">
-        <v>-140296.0349087435</v>
+        <v>-137265.6668087435</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4262,22 +4100,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5255</v>
+        <v>5235</v>
       </c>
       <c r="C96" t="n">
-        <v>5250</v>
+        <v>5235</v>
       </c>
       <c r="D96" t="n">
-        <v>5255</v>
+        <v>5235</v>
       </c>
       <c r="E96" t="n">
-        <v>5250</v>
+        <v>5235</v>
       </c>
       <c r="F96" t="n">
-        <v>42.9</v>
+        <v>103.1541</v>
       </c>
       <c r="G96" t="n">
-        <v>-140296.0349087435</v>
+        <v>-137368.8209087435</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4304,22 +4142,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5260</v>
+        <v>5220</v>
       </c>
       <c r="C97" t="n">
-        <v>5260</v>
+        <v>5220</v>
       </c>
       <c r="D97" t="n">
-        <v>5260</v>
+        <v>5220</v>
       </c>
       <c r="E97" t="n">
-        <v>5260</v>
+        <v>5220</v>
       </c>
       <c r="F97" t="n">
-        <v>20.2</v>
+        <v>349.3268</v>
       </c>
       <c r="G97" t="n">
-        <v>-140275.8349087435</v>
+        <v>-137718.1477087435</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4346,22 +4184,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5260</v>
+        <v>5220</v>
       </c>
       <c r="C98" t="n">
-        <v>5260</v>
+        <v>5220</v>
       </c>
       <c r="D98" t="n">
-        <v>5260</v>
+        <v>5220</v>
       </c>
       <c r="E98" t="n">
-        <v>5260</v>
+        <v>5220</v>
       </c>
       <c r="F98" t="n">
-        <v>39.1634</v>
+        <v>215.5916</v>
       </c>
       <c r="G98" t="n">
-        <v>-140275.8349087435</v>
+        <v>-137718.1477087435</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4388,22 +4226,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5265</v>
+        <v>5215</v>
       </c>
       <c r="C99" t="n">
-        <v>5265</v>
+        <v>5210</v>
       </c>
       <c r="D99" t="n">
-        <v>5265</v>
+        <v>5215</v>
       </c>
       <c r="E99" t="n">
-        <v>5265</v>
+        <v>5210</v>
       </c>
       <c r="F99" t="n">
-        <v>30.3</v>
+        <v>300</v>
       </c>
       <c r="G99" t="n">
-        <v>-140245.5349087435</v>
+        <v>-138018.1477087435</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4430,30 +4268,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5270</v>
+        <v>5240</v>
       </c>
       <c r="C100" t="n">
-        <v>5270</v>
+        <v>5240</v>
       </c>
       <c r="D100" t="n">
-        <v>5270</v>
+        <v>5240</v>
       </c>
       <c r="E100" t="n">
-        <v>5270</v>
+        <v>5240</v>
       </c>
       <c r="F100" t="n">
-        <v>16.1635</v>
+        <v>99.5</v>
       </c>
       <c r="G100" t="n">
-        <v>-140229.3714087435</v>
+        <v>-137918.6477087435</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>5210</v>
+      </c>
       <c r="K100" t="n">
         <v>5205</v>
       </c>
@@ -4472,22 +4312,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5270</v>
+        <v>5245</v>
       </c>
       <c r="C101" t="n">
-        <v>5270</v>
+        <v>5245</v>
       </c>
       <c r="D101" t="n">
-        <v>5270</v>
+        <v>5245</v>
       </c>
       <c r="E101" t="n">
-        <v>5270</v>
+        <v>5245</v>
       </c>
       <c r="F101" t="n">
-        <v>16.1635</v>
+        <v>4.0994</v>
       </c>
       <c r="G101" t="n">
-        <v>-140229.3714087435</v>
+        <v>-137914.5483087435</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4514,22 +4354,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5255</v>
+        <v>5240</v>
       </c>
       <c r="C102" t="n">
-        <v>5255</v>
+        <v>5240</v>
       </c>
       <c r="D102" t="n">
-        <v>5255</v>
+        <v>5240</v>
       </c>
       <c r="E102" t="n">
-        <v>5255</v>
+        <v>5240</v>
       </c>
       <c r="F102" t="n">
-        <v>1.1681</v>
+        <v>18.8061</v>
       </c>
       <c r="G102" t="n">
-        <v>-140230.5395087435</v>
+        <v>-137933.3544087435</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4556,22 +4396,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5265</v>
+        <v>5230</v>
       </c>
       <c r="C103" t="n">
-        <v>5265</v>
+        <v>5230</v>
       </c>
       <c r="D103" t="n">
-        <v>5265</v>
+        <v>5230</v>
       </c>
       <c r="E103" t="n">
-        <v>5265</v>
+        <v>5230</v>
       </c>
       <c r="F103" t="n">
-        <v>6.2917</v>
+        <v>3.1133</v>
       </c>
       <c r="G103" t="n">
-        <v>-140224.2478087435</v>
+        <v>-137936.4677087435</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4598,22 +4438,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5270</v>
+        <v>5235</v>
       </c>
       <c r="C104" t="n">
-        <v>5270</v>
+        <v>5235</v>
       </c>
       <c r="D104" t="n">
-        <v>5270</v>
+        <v>5235</v>
       </c>
       <c r="E104" t="n">
-        <v>5270</v>
+        <v>5235</v>
       </c>
       <c r="F104" t="n">
-        <v>18.8574</v>
+        <v>0.2</v>
       </c>
       <c r="G104" t="n">
-        <v>-140205.3904087435</v>
+        <v>-137936.2677087435</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4640,22 +4480,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5250</v>
+        <v>5235</v>
       </c>
       <c r="C105" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="D105" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="E105" t="n">
-        <v>5250</v>
+        <v>5235</v>
       </c>
       <c r="F105" t="n">
-        <v>400</v>
+        <v>67.2</v>
       </c>
       <c r="G105" t="n">
-        <v>-140605.3904087435</v>
+        <v>-137869.0677087435</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4682,22 +4522,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5245</v>
+        <v>5235</v>
       </c>
       <c r="C106" t="n">
-        <v>5245</v>
+        <v>5220</v>
       </c>
       <c r="D106" t="n">
-        <v>5245</v>
+        <v>5235</v>
       </c>
       <c r="E106" t="n">
-        <v>5240</v>
+        <v>5220</v>
       </c>
       <c r="F106" t="n">
-        <v>242.8183</v>
+        <v>2315.8311</v>
       </c>
       <c r="G106" t="n">
-        <v>-140848.2087087435</v>
+        <v>-140184.8988087435</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4724,22 +4564,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5235</v>
+        <v>5240</v>
       </c>
       <c r="C107" t="n">
-        <v>5235</v>
+        <v>5240</v>
       </c>
       <c r="D107" t="n">
-        <v>5235</v>
+        <v>5240</v>
       </c>
       <c r="E107" t="n">
-        <v>5235</v>
+        <v>5240</v>
       </c>
       <c r="F107" t="n">
-        <v>200.0775</v>
+        <v>216.8356</v>
       </c>
       <c r="G107" t="n">
-        <v>-141048.2862087435</v>
+        <v>-139968.0632087435</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4766,22 +4606,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5240</v>
+        <v>5250</v>
       </c>
       <c r="C108" t="n">
-        <v>5240</v>
+        <v>5255</v>
       </c>
       <c r="D108" t="n">
-        <v>5240</v>
+        <v>5255</v>
       </c>
       <c r="E108" t="n">
-        <v>5240</v>
+        <v>5250</v>
       </c>
       <c r="F108" t="n">
-        <v>2.7605</v>
+        <v>106</v>
       </c>
       <c r="G108" t="n">
-        <v>-141045.5257087435</v>
+        <v>-139862.0632087435</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4811,19 +4651,19 @@
         <v>5255</v>
       </c>
       <c r="C109" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="D109" t="n">
-        <v>5255</v>
+        <v>5270</v>
       </c>
       <c r="E109" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="F109" t="n">
-        <v>1.9668</v>
+        <v>1568.8211</v>
       </c>
       <c r="G109" t="n">
-        <v>-141043.5589087435</v>
+        <v>-141430.8843087435</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4850,22 +4690,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="C110" t="n">
-        <v>5240</v>
+        <v>5260</v>
       </c>
       <c r="D110" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="E110" t="n">
-        <v>5240</v>
+        <v>5260</v>
       </c>
       <c r="F110" t="n">
-        <v>80.515</v>
+        <v>7.4208</v>
       </c>
       <c r="G110" t="n">
-        <v>-141124.0739087435</v>
+        <v>-141423.4635087435</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4892,22 +4732,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="C111" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="D111" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="E111" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="F111" t="n">
-        <v>37.3404</v>
+        <v>45.0458</v>
       </c>
       <c r="G111" t="n">
-        <v>-141086.7335087435</v>
+        <v>-141378.4177087435</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4934,22 +4774,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="C112" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="D112" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="E112" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="F112" t="n">
-        <v>10.6538</v>
+        <v>37.9868</v>
       </c>
       <c r="G112" t="n">
-        <v>-141097.3873087435</v>
+        <v>-141378.4177087435</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4976,22 +4816,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="C113" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="D113" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="E113" t="n">
-        <v>5255</v>
+        <v>5250</v>
       </c>
       <c r="F113" t="n">
-        <v>18.1889</v>
+        <v>18.7591</v>
       </c>
       <c r="G113" t="n">
-        <v>-141097.3873087435</v>
+        <v>-141397.1768087435</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5018,22 +4858,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="C114" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="D114" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="E114" t="n">
-        <v>5245</v>
+        <v>5260</v>
       </c>
       <c r="F114" t="n">
-        <v>96.5</v>
+        <v>300.2991</v>
       </c>
       <c r="G114" t="n">
-        <v>-141193.8873087435</v>
+        <v>-141096.8777087435</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5060,22 +4900,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="C115" t="n">
-        <v>5260</v>
+        <v>5285</v>
       </c>
       <c r="D115" t="n">
-        <v>5260</v>
+        <v>5285</v>
       </c>
       <c r="E115" t="n">
-        <v>5260</v>
+        <v>5270</v>
       </c>
       <c r="F115" t="n">
-        <v>55.6059</v>
+        <v>801.4845</v>
       </c>
       <c r="G115" t="n">
-        <v>-141138.2814087436</v>
+        <v>-140295.3932087435</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5102,7 +4942,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="C116" t="n">
         <v>5265</v>
@@ -5111,13 +4951,13 @@
         <v>5265</v>
       </c>
       <c r="E116" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="F116" t="n">
-        <v>165.6194</v>
+        <v>12.9125</v>
       </c>
       <c r="G116" t="n">
-        <v>-140972.6620087436</v>
+        <v>-140308.3057087435</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5144,22 +4984,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="C117" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="D117" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="E117" t="n">
-        <v>5260</v>
+        <v>5265</v>
       </c>
       <c r="F117" t="n">
-        <v>18.03</v>
+        <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>-140990.6920087436</v>
+        <v>-140308.3057087435</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5192,16 +5032,16 @@
         <v>5265</v>
       </c>
       <c r="D118" t="n">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="E118" t="n">
-        <v>5265</v>
+        <v>5250</v>
       </c>
       <c r="F118" t="n">
-        <v>19.0327</v>
+        <v>489.9112</v>
       </c>
       <c r="G118" t="n">
-        <v>-140971.6593087435</v>
+        <v>-140308.3057087435</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5228,22 +5068,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="C119" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="D119" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="E119" t="n">
-        <v>5265</v>
+        <v>5260</v>
       </c>
       <c r="F119" t="n">
-        <v>13.0133</v>
+        <v>12.2063</v>
       </c>
       <c r="G119" t="n">
-        <v>-140971.6593087435</v>
+        <v>-140320.5120087435</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5270,22 +5110,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="C120" t="n">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="D120" t="n">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="E120" t="n">
-        <v>5265</v>
+        <v>5270</v>
       </c>
       <c r="F120" t="n">
-        <v>8.1732</v>
+        <v>131.928</v>
       </c>
       <c r="G120" t="n">
-        <v>-140971.6593087435</v>
+        <v>-140188.5840087435</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5324,10 +5164,10 @@
         <v>5265</v>
       </c>
       <c r="F121" t="n">
-        <v>6.1103</v>
+        <v>8.5123</v>
       </c>
       <c r="G121" t="n">
-        <v>-140971.6593087435</v>
+        <v>-140197.0963087435</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5354,22 +5194,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="C122" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="D122" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="E122" t="n">
-        <v>5255</v>
+        <v>5265</v>
       </c>
       <c r="F122" t="n">
-        <v>13.7</v>
+        <v>66.6003</v>
       </c>
       <c r="G122" t="n">
-        <v>-140985.3593087436</v>
+        <v>-140197.0963087435</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5390,6 +5230,1224 @@
         <v>1</v>
       </c>
       <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E123" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F123" t="n">
+        <v>98.93859999999999</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-140296.0349087435</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F124" t="n">
+        <v>32.0614</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-140296.0349087435</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C125" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F125" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-140296.0349087435</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E126" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F126" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-140275.8349087435</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C127" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D127" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F127" t="n">
+        <v>39.1634</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-140275.8349087435</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D128" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5265</v>
+      </c>
+      <c r="F128" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-140245.5349087435</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5270</v>
+      </c>
+      <c r="C129" t="n">
+        <v>5270</v>
+      </c>
+      <c r="D129" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5270</v>
+      </c>
+      <c r="F129" t="n">
+        <v>16.1635</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-140229.3714087435</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5270</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5270</v>
+      </c>
+      <c r="D130" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5270</v>
+      </c>
+      <c r="F130" t="n">
+        <v>16.1635</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-140229.3714087435</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D131" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E131" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.1681</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-140230.5395087435</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5265</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6.2917</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-140224.2478087435</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>5270</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5270</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5270</v>
+      </c>
+      <c r="E133" t="n">
+        <v>5270</v>
+      </c>
+      <c r="F133" t="n">
+        <v>18.8574</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-140205.3904087435</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5250</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5250</v>
+      </c>
+      <c r="E134" t="n">
+        <v>5250</v>
+      </c>
+      <c r="F134" t="n">
+        <v>400</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-140605.3904087435</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5245</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5245</v>
+      </c>
+      <c r="D135" t="n">
+        <v>5245</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5240</v>
+      </c>
+      <c r="F135" t="n">
+        <v>242.8183</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-140848.2087087435</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5235</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5235</v>
+      </c>
+      <c r="D136" t="n">
+        <v>5235</v>
+      </c>
+      <c r="E136" t="n">
+        <v>5235</v>
+      </c>
+      <c r="F136" t="n">
+        <v>200.0775</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-141048.2862087435</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5240</v>
+      </c>
+      <c r="C137" t="n">
+        <v>5240</v>
+      </c>
+      <c r="D137" t="n">
+        <v>5240</v>
+      </c>
+      <c r="E137" t="n">
+        <v>5240</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2.7605</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-141045.5257087435</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.9668</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-141043.5589087435</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5245</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5240</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5245</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5240</v>
+      </c>
+      <c r="F139" t="n">
+        <v>80.515</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-141124.0739087435</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C140" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D140" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E140" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F140" t="n">
+        <v>37.3404</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-141086.7335087435</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C141" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D141" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E141" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F141" t="n">
+        <v>10.6538</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-141097.3873087435</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D142" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F142" t="n">
+        <v>18.1889</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-141097.3873087435</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5245</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5245</v>
+      </c>
+      <c r="D143" t="n">
+        <v>5245</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5245</v>
+      </c>
+      <c r="F143" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-141193.8873087435</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E144" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F144" t="n">
+        <v>55.6059</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-141138.2814087436</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F145" t="n">
+        <v>165.6194</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-140972.6620087436</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5260</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5260</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5260</v>
+      </c>
+      <c r="F146" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-140990.6920087436</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D147" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5265</v>
+      </c>
+      <c r="F147" t="n">
+        <v>19.0327</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-140971.6593087435</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5265</v>
+      </c>
+      <c r="F148" t="n">
+        <v>13.0133</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-140971.6593087435</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E149" t="n">
+        <v>5265</v>
+      </c>
+      <c r="F149" t="n">
+        <v>8.1732</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-140971.6593087435</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5265</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5265</v>
+      </c>
+      <c r="D150" t="n">
+        <v>5265</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5265</v>
+      </c>
+      <c r="F150" t="n">
+        <v>6.1103</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-140971.6593087435</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5255</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5255</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5255</v>
+      </c>
+      <c r="F151" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-140985.3593087436</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>5205</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-19 BackTest ETC.xlsx
+++ b/BackTest/2019-10-19 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-133233.8409747851</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-133021.8409747851</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-133021.8409747851</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-133031.8409747851</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-132961.8199747851</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-132986.0999747851</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-132986.0999747851</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-132519.5137747851</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-132744.8137747851</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,21 @@
         <v>-133112.9908747851</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>5215</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2142,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2179,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2214,21 @@
         <v>-133116.2408747851</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>5210</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,22 +2253,21 @@
         <v>-133115.2408747851</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
         <v>5205</v>
       </c>
-      <c r="K56" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2440,26 +2292,21 @@
         <v>-135622.9173747851</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
         <v>5215</v>
       </c>
-      <c r="K57" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2484,26 +2331,21 @@
         <v>-135622.5146902213</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
         <v>5205</v>
       </c>
-      <c r="K58" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2528,26 +2370,21 @@
         <v>-135622.5146902213</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
         <v>5215</v>
       </c>
-      <c r="K59" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2574,22 +2411,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2614,26 +2446,19 @@
         <v>-135981.6750902213</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>5200</v>
-      </c>
-      <c r="K61" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2660,22 +2485,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2702,24 +2522,17 @@
       <c r="H63" t="n">
         <v>1</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>5200</v>
-      </c>
-      <c r="K63" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2744,26 +2557,19 @@
         <v>-135983.6750902213</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>5200</v>
-      </c>
-      <c r="K64" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2788,26 +2594,21 @@
         <v>-136183.6762902213</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
         <v>5200</v>
       </c>
-      <c r="K65" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2832,26 +2633,21 @@
         <v>-136156.7762902213</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
         <v>5195</v>
       </c>
-      <c r="K66" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2876,26 +2672,21 @@
         <v>-136156.7762902213</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
         <v>5210</v>
       </c>
-      <c r="K67" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2920,26 +2711,21 @@
         <v>-139367.1493902213</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
         <v>5210</v>
       </c>
-      <c r="K68" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2964,26 +2750,21 @@
         <v>-139269.1541902213</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
         <v>5200</v>
       </c>
-      <c r="K69" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3008,26 +2789,21 @@
         <v>-139269.1541902213</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
         <v>5205</v>
       </c>
-      <c r="K70" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3052,26 +2828,21 @@
         <v>-139269.1541902213</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
         <v>5205</v>
       </c>
-      <c r="K71" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3096,26 +2867,21 @@
         <v>-139269.1541902213</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
         <v>5205</v>
       </c>
-      <c r="K72" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3140,26 +2906,21 @@
         <v>-139268.7511192041</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
         <v>5205</v>
       </c>
-      <c r="K73" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3184,26 +2945,21 @@
         <v>-139443.0771192041</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
         <v>5210</v>
       </c>
-      <c r="K74" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3228,26 +2984,21 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
         <v>5205</v>
       </c>
-      <c r="K75" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3272,26 +3023,21 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
         <v>5215</v>
       </c>
-      <c r="K76" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3316,26 +3062,21 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
         <v>5215</v>
       </c>
-      <c r="K77" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3360,26 +3101,19 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>5215</v>
-      </c>
-      <c r="K78" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3406,22 +3140,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3448,22 +3177,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3490,22 +3214,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3532,22 +3251,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3574,22 +3288,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3616,22 +3325,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3656,24 +3360,19 @@
         <v>-137097.2587316443</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3698,24 +3397,19 @@
         <v>-137104.6901316443</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3740,24 +3434,19 @@
         <v>-137104.6901316443</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3782,24 +3471,19 @@
         <v>-137242.2757316442</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3826,22 +3510,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3868,22 +3547,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3908,24 +3582,19 @@
         <v>-137114.0963316443</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3952,22 +3621,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3994,22 +3658,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4036,22 +3695,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4078,22 +3732,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4120,22 +3769,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4162,22 +3806,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4202,24 +3841,21 @@
         <v>-137718.1477087435</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>5220</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4244,24 +3880,21 @@
         <v>-138018.1477087435</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>5220</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4286,26 +3919,21 @@
         <v>-137918.6477087435</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
         <v>5210</v>
       </c>
-      <c r="K100" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4332,22 +3960,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4374,22 +3997,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4416,22 +4034,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4458,22 +4071,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4500,22 +4108,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4542,22 +4145,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4584,22 +4182,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4626,22 +4219,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4668,22 +4256,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4710,22 +4293,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4752,22 +4330,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4794,22 +4367,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4836,22 +4404,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4878,22 +4441,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4920,22 +4478,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4962,22 +4515,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5004,22 +4552,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5046,22 +4589,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5086,24 +4624,17 @@
         <v>-140320.5120087435</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5130,22 +4661,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5172,22 +4694,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5214,22 +4727,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5256,22 +4760,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5298,22 +4793,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5340,22 +4826,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5382,22 +4859,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5424,22 +4892,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5466,22 +4925,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5508,22 +4958,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5550,22 +4991,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5592,22 +5024,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5634,22 +5057,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5676,22 +5090,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5716,24 +5121,15 @@
         <v>-140605.3904087435</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5760,22 +5156,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5802,22 +5189,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5844,22 +5222,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5886,22 +5255,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5928,22 +5288,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5970,22 +5321,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6012,22 +5354,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6054,22 +5387,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6096,22 +5420,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6138,22 +5453,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6180,22 +5486,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6222,22 +5519,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6264,22 +5552,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6306,22 +5585,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6348,22 +5618,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6390,22 +5651,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6432,24 +5684,15 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>5205</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest ETC.xlsx
+++ b/BackTest/2019-10-19 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-133905.1249747851</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-133905.1249747851</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-133905.1249747851</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-133233.8409747851</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-133021.8409747851</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-133021.8409747851</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-133031.8409747851</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-132961.8199747851</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-132986.0999747851</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-132986.0999747851</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-132519.5137747851</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-132744.8137747851</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2101,17 +2101,11 @@
         <v>-133112.9908747851</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2140,15 +2134,15 @@
         <v>-133112.9908747851</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5220</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5220</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2180,10 +2174,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5220</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2214,15 +2210,17 @@
         <v>-133116.2408747851</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>5210</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>5220</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2253,17 +2251,15 @@
         <v>-133115.2408747851</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>5205</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2292,15 +2288,17 @@
         <v>-135622.9173747851</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>5215</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5205</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2331,12 +2329,14 @@
         <v>-135622.5146902213</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>5205</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5205</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2370,12 +2370,14 @@
         <v>-135622.5146902213</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>5215</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5205</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2409,10 +2411,14 @@
         <v>-136004.8977902214</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5215</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5205</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2446,10 +2452,14 @@
         <v>-135981.6750902213</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5200</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5205</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2483,10 +2493,14 @@
         <v>-135983.6750902213</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5210</v>
+      </c>
+      <c r="J62" t="n">
+        <v>5205</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2522,8 +2536,12 @@
       <c r="H63" t="n">
         <v>1</v>
       </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>5200</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5205</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2557,10 +2575,14 @@
         <v>-135983.6750902213</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5200</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5205</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2594,12 +2616,14 @@
         <v>-136183.6762902213</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>5200</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>5205</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2633,12 +2657,14 @@
         <v>-136156.7762902213</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>5195</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>5205</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2672,12 +2698,14 @@
         <v>-136156.7762902213</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>5210</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>5205</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2711,12 +2739,14 @@
         <v>-139367.1493902213</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>5210</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>5205</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2750,12 +2780,14 @@
         <v>-139269.1541902213</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>5200</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5205</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2789,12 +2821,14 @@
         <v>-139269.1541902213</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>5205</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5205</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2828,12 +2862,14 @@
         <v>-139269.1541902213</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>5205</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5205</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2867,12 +2903,14 @@
         <v>-139269.1541902213</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>5205</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5205</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2906,12 +2944,14 @@
         <v>-139268.7511192041</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>5205</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>5205</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2945,12 +2985,14 @@
         <v>-139443.0771192041</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>5210</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>5205</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2984,12 +3026,14 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>5205</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>5205</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3023,12 +3067,14 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>5215</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>5205</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3062,12 +3108,14 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>5215</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5205</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3101,10 +3149,14 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>5215</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5205</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3138,10 +3190,14 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5215</v>
+      </c>
+      <c r="J79" t="n">
+        <v>5205</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3175,10 +3231,14 @@
         <v>-139165.8836316442</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5215</v>
+      </c>
+      <c r="J80" t="n">
+        <v>5205</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3215,7 +3275,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>5205</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3252,7 +3314,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>5205</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3289,7 +3353,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>5205</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3326,7 +3392,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>5205</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3360,10 +3428,12 @@
         <v>-137097.2587316443</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>5205</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3397,10 +3467,12 @@
         <v>-137104.6901316443</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5205</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3434,10 +3506,12 @@
         <v>-137104.6901316443</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>5205</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3471,10 +3545,12 @@
         <v>-137242.2757316442</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5205</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3511,7 +3587,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>5205</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3548,7 +3626,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>5205</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3582,10 +3662,12 @@
         <v>-137114.0963316443</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>5205</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3622,7 +3704,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>5205</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3659,7 +3743,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>5205</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3696,7 +3782,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5205</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3733,7 +3821,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>5205</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3770,7 +3860,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5205</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3807,7 +3899,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5205</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3841,12 +3935,12 @@
         <v>-137718.1477087435</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5220</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5205</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3880,12 +3974,12 @@
         <v>-138018.1477087435</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>5220</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>5205</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3919,12 +4013,12 @@
         <v>-137918.6477087435</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>5210</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>5205</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3961,7 +4055,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>5205</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3998,7 +4094,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>5205</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4035,7 +4133,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>5205</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4072,7 +4172,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>5205</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4109,7 +4211,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5205</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4146,7 +4250,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5205</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4183,7 +4289,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5205</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4220,7 +4328,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5205</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4257,7 +4367,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5205</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4294,7 +4406,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5205</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4331,7 +4445,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5205</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4368,7 +4484,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5205</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4405,7 +4523,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5205</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4442,7 +4562,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5205</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4479,7 +4601,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5205</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4516,7 +4640,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5205</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4553,7 +4679,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5205</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4590,7 +4718,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5205</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4624,16 +4754,20 @@
         <v>-140320.5120087435</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5205</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
       <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -4662,8 +4796,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4695,8 +4835,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4728,8 +4874,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4761,8 +4913,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4794,8 +4952,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4827,8 +4991,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4860,8 +5030,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4893,8 +5069,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4926,8 +5108,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4959,8 +5147,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4992,8 +5186,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5025,8 +5225,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5058,8 +5264,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5091,8 +5303,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5121,11 +5339,17 @@
         <v>-140605.3904087435</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5157,8 +5381,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5190,8 +5420,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5223,8 +5459,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5256,8 +5498,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5289,8 +5537,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5322,8 +5576,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5355,8 +5615,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5388,8 +5654,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5421,8 +5693,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5454,8 +5732,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5487,8 +5771,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5520,8 +5810,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5553,8 +5849,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5586,8 +5888,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5619,8 +5927,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5652,8 +5966,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5685,14 +6005,20 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>5205</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
       <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest ETC.xlsx
+++ b/BackTest/2019-10-19 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-133905.1249747851</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-133905.1249747851</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-133905.1249747851</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1771,10 +1771,14 @@
         <v>-132608.3618747851</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5225</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5225</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1804,11 +1808,19 @@
         <v>-132954.1257747851</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5235</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5225</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1852,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>5225</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2171,9 +2189,11 @@
         <v>-133115.2408747851</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5220</v>
+      </c>
       <c r="J54" t="n">
         <v>5220</v>
       </c>
@@ -2534,11 +2554,9 @@
         <v>-135983.6750902213</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>5205</v>
       </c>
@@ -2575,11 +2593,9 @@
         <v>-135983.6750902213</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>5205</v>
       </c>
@@ -2616,11 +2632,9 @@
         <v>-136183.6762902213</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>5205</v>
       </c>
@@ -2657,11 +2671,9 @@
         <v>-136156.7762902213</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>5205</v>
       </c>
@@ -2698,11 +2710,9 @@
         <v>-136156.7762902213</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>5205</v>
       </c>
@@ -2739,11 +2749,9 @@
         <v>-139367.1493902213</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>5205</v>
       </c>
@@ -2862,11 +2870,9 @@
         <v>-139269.1541902213</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>5205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>5205</v>
       </c>
@@ -2903,11 +2909,9 @@
         <v>-139269.1541902213</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>5205</v>
       </c>
@@ -2944,11 +2948,9 @@
         <v>-139268.7511192041</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>5205</v>
       </c>
@@ -2985,11 +2987,9 @@
         <v>-139443.0771192041</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>5210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>5205</v>
       </c>
@@ -3026,11 +3026,9 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>5205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>5205</v>
       </c>
@@ -3067,11 +3065,9 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>5205</v>
       </c>
@@ -3190,11 +3186,9 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>5215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>5205</v>
       </c>
@@ -3231,11 +3225,9 @@
         <v>-139165.8836316442</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>5205</v>
       </c>
@@ -4286,7 +4278,7 @@
         <v>-139968.0632087435</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
@@ -4294,11 +4286,11 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>1.001724303554275</v>
       </c>
       <c r="M107" t="inlineStr"/>
     </row>
@@ -4325,17 +4317,11 @@
         <v>-139862.0632087435</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4364,17 +4350,11 @@
         <v>-141430.8843087435</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4403,17 +4383,11 @@
         <v>-141423.4635087435</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4445,14 +4419,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4484,14 +4452,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4523,14 +4485,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4562,14 +4518,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4601,14 +4551,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4640,14 +4584,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4679,14 +4617,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4718,14 +4650,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4757,14 +4683,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4796,14 +4716,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4835,14 +4749,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4874,14 +4782,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4913,14 +4815,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4952,14 +4848,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4991,14 +4881,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5030,14 +4914,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5069,14 +4947,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5108,14 +4980,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5147,14 +5013,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5186,14 +5046,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5225,14 +5079,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5264,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5303,14 +5145,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5342,14 +5178,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5381,14 +5211,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5420,14 +5244,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5459,14 +5277,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5498,14 +5310,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5537,14 +5343,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5576,14 +5376,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5615,14 +5409,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5654,14 +5442,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5693,14 +5475,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5732,14 +5508,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5771,14 +5541,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5810,14 +5574,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5849,14 +5607,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5888,14 +5640,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5927,14 +5673,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5966,14 +5706,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6005,20 +5739,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
       <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest ETC.xlsx
+++ b/BackTest/2019-10-19 BackTest ETC.xlsx
@@ -451,7 +451,7 @@
         <v>-133905.3867747851</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-133905.1249747851</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-133905.1249747851</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-133905.1249747851</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-133917.4797747851</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-133917.4797747851</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-133917.4797747851</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-133917.4797747851</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-133917.4797747851</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-133917.4797747851</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-134270.2875747851</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-134270.2875747851</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-134270.2875747851</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-134270.2875747851</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-134270.2875747851</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-134270.2875747851</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-134220.3587747851</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-133241.8174747851</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-133241.8174747851</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-133241.8174747851</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-133233.8409747851</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-133021.8409747851</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-133021.8409747851</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-133031.8409747851</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-132961.8199747851</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-132986.0999747851</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-132986.0999747851</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-132519.5137747851</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-132744.8137747851</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-132678.0664747851</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-132708.0196747851</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,14 +1771,10 @@
         <v>-132608.3618747851</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5225</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5225</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1808,19 +1804,11 @@
         <v>-132954.1257747851</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5235</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5225</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1849,17 +1837,11 @@
         <v>-132744.1257747851</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>5225</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1888,7 +1870,7 @@
         <v>-132744.1257747851</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1921,7 +1903,7 @@
         <v>-132745.1257747851</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1954,7 +1936,7 @@
         <v>-133353.9408747851</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1987,7 +1969,7 @@
         <v>-133353.9408747851</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2053,7 +2035,7 @@
         <v>-133261.7408747851</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2086,7 +2068,7 @@
         <v>-133262.7408747851</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2119,7 +2101,7 @@
         <v>-133112.9908747851</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2152,14 +2134,10 @@
         <v>-133112.9908747851</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>5220</v>
-      </c>
-      <c r="J53" t="n">
-        <v>5220</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2189,19 +2167,11 @@
         <v>-133115.2408747851</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>5220</v>
-      </c>
-      <c r="J54" t="n">
-        <v>5220</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2230,19 +2200,11 @@
         <v>-133116.2408747851</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5210</v>
-      </c>
-      <c r="J55" t="n">
-        <v>5220</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2308,11 +2270,9 @@
         <v>-135622.9173747851</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>5205</v>
       </c>
@@ -2349,11 +2309,9 @@
         <v>-135622.5146902213</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5205</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>5205</v>
       </c>
@@ -2390,11 +2348,9 @@
         <v>-135622.5146902213</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>5215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>5205</v>
       </c>
@@ -2431,11 +2387,9 @@
         <v>-136004.8977902214</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>5205</v>
       </c>
@@ -2472,11 +2426,9 @@
         <v>-135981.6750902213</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>5205</v>
       </c>
@@ -2554,9 +2506,11 @@
         <v>-135983.6750902213</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5200</v>
+      </c>
       <c r="J63" t="n">
         <v>5205</v>
       </c>
@@ -2593,9 +2547,11 @@
         <v>-135983.6750902213</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5200</v>
+      </c>
       <c r="J64" t="n">
         <v>5205</v>
       </c>
@@ -2632,9 +2588,11 @@
         <v>-136183.6762902213</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5200</v>
+      </c>
       <c r="J65" t="n">
         <v>5205</v>
       </c>
@@ -2671,9 +2629,11 @@
         <v>-136156.7762902213</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5195</v>
+      </c>
       <c r="J66" t="n">
         <v>5205</v>
       </c>
@@ -2710,9 +2670,11 @@
         <v>-136156.7762902213</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5210</v>
+      </c>
       <c r="J67" t="n">
         <v>5205</v>
       </c>
@@ -2749,9 +2711,11 @@
         <v>-139367.1493902213</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5210</v>
+      </c>
       <c r="J68" t="n">
         <v>5205</v>
       </c>
@@ -2870,9 +2834,11 @@
         <v>-139269.1541902213</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5205</v>
+      </c>
       <c r="J71" t="n">
         <v>5205</v>
       </c>
@@ -2909,9 +2875,11 @@
         <v>-139269.1541902213</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>5205</v>
+      </c>
       <c r="J72" t="n">
         <v>5205</v>
       </c>
@@ -2948,9 +2916,11 @@
         <v>-139268.7511192041</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5205</v>
+      </c>
       <c r="J73" t="n">
         <v>5205</v>
       </c>
@@ -2987,9 +2957,11 @@
         <v>-139443.0771192041</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5210</v>
+      </c>
       <c r="J74" t="n">
         <v>5205</v>
       </c>
@@ -3026,9 +2998,11 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5205</v>
+      </c>
       <c r="J75" t="n">
         <v>5205</v>
       </c>
@@ -3065,9 +3039,11 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5215</v>
+      </c>
       <c r="J76" t="n">
         <v>5205</v>
       </c>
@@ -3186,9 +3162,11 @@
         <v>-139166.0750192041</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5215</v>
+      </c>
       <c r="J79" t="n">
         <v>5205</v>
       </c>
@@ -3225,9 +3203,11 @@
         <v>-139165.8836316442</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5215</v>
+      </c>
       <c r="J80" t="n">
         <v>5205</v>
       </c>
@@ -3381,7 +3361,7 @@
         <v>-137097.2587316443</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
@@ -3389,11 +3369,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>1.005566762728146</v>
       </c>
       <c r="M84" t="inlineStr"/>
     </row>
@@ -3420,17 +3400,11 @@
         <v>-137097.2587316443</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3459,17 +3433,11 @@
         <v>-137104.6901316443</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3498,17 +3466,11 @@
         <v>-137104.6901316443</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3537,17 +3499,11 @@
         <v>-137242.2757316442</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3579,14 +3535,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3618,14 +3568,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3657,14 +3601,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3696,14 +3634,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3735,14 +3667,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3774,14 +3700,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3813,14 +3733,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3852,14 +3766,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3891,14 +3799,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3930,14 +3832,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3969,14 +3865,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4005,17 +3895,15 @@
         <v>-137918.6477087435</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5210</v>
+      </c>
       <c r="J100" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5210</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +3936,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>5205</v>
+        <v>5210</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -4087,11 +3975,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>5205</v>
+        <v>5210</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -4125,14 +4013,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4164,14 +4046,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4203,14 +4079,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4242,14 +4112,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4278,19 +4142,13 @@
         <v>-139968.0632087435</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>1.001724303554275</v>
+        <v>1</v>
       </c>
       <c r="M107" t="inlineStr"/>
     </row>
@@ -4317,7 +4175,7 @@
         <v>-139862.0632087435</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4350,7 +4208,7 @@
         <v>-141430.8843087435</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4383,7 +4241,7 @@
         <v>-141423.4635087435</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4449,7 +4307,7 @@
         <v>-141378.4177087435</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4581,7 +4439,7 @@
         <v>-140308.3057087435</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5043,7 +4901,7 @@
         <v>-140229.3714087435</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5076,7 +4934,7 @@
         <v>-140230.5395087435</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5109,7 +4967,7 @@
         <v>-140224.2478087435</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5142,7 +5000,7 @@
         <v>-140205.3904087435</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5175,7 +5033,7 @@
         <v>-140605.3904087435</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5208,7 +5066,7 @@
         <v>-140848.2087087435</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5241,7 +5099,7 @@
         <v>-141048.2862087435</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5406,7 +5264,7 @@
         <v>-141097.3873087435</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5439,7 +5297,7 @@
         <v>-141097.3873087435</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5472,7 +5330,7 @@
         <v>-141193.8873087435</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5505,7 +5363,7 @@
         <v>-141138.2814087436</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5571,7 +5429,7 @@
         <v>-140990.6920087436</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5670,7 +5528,7 @@
         <v>-140971.6593087435</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5703,7 +5561,7 @@
         <v>-140971.6593087435</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest ETC.xlsx
+++ b/BackTest/2019-10-19 BackTest ETC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2997.7028</v>
       </c>
       <c r="G2" t="n">
-        <v>-133905.3867747851</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3693.0154</v>
       </c>
       <c r="G3" t="n">
-        <v>-133905.3867747851</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>3582.7097</v>
       </c>
       <c r="G4" t="n">
-        <v>-133905.3867747851</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1294.7457</v>
       </c>
       <c r="G5" t="n">
-        <v>-133905.3867747851</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>541.3153</v>
       </c>
       <c r="G6" t="n">
-        <v>-133905.3867747851</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>206.342</v>
       </c>
       <c r="G7" t="n">
-        <v>-133905.3867747851</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>17.8166</v>
       </c>
       <c r="G8" t="n">
-        <v>-133905.3867747851</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>222.2646</v>
       </c>
       <c r="G9" t="n">
-        <v>-133905.3867747851</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2907.6966</v>
       </c>
       <c r="G10" t="n">
-        <v>-133905.3867747851</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>0.2618</v>
       </c>
       <c r="G11" t="n">
-        <v>-133905.1249747851</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>838</v>
       </c>
       <c r="G12" t="n">
-        <v>-133905.1249747851</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>254</v>
       </c>
       <c r="G13" t="n">
-        <v>-133905.1249747851</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>12.3548</v>
       </c>
       <c r="G14" t="n">
-        <v>-133917.4797747851</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>285.4279</v>
       </c>
       <c r="G15" t="n">
-        <v>-133917.4797747851</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>6.532</v>
       </c>
       <c r="G16" t="n">
-        <v>-133917.4797747851</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>392</v>
       </c>
       <c r="G17" t="n">
-        <v>-133917.4797747851</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>285.4279</v>
       </c>
       <c r="G18" t="n">
-        <v>-133917.4797747851</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>7.2645</v>
       </c>
       <c r="G19" t="n">
-        <v>-133917.4797747851</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>352.8078</v>
       </c>
       <c r="G20" t="n">
-        <v>-134270.2875747851</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>94.4406</v>
       </c>
       <c r="G21" t="n">
-        <v>-134270.2875747851</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>180.2012</v>
       </c>
       <c r="G22" t="n">
-        <v>-134270.2875747851</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>8.816000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>-134270.2875747851</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>822.0875</v>
       </c>
       <c r="G24" t="n">
-        <v>-134270.2875747851</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>496.5187</v>
       </c>
       <c r="G25" t="n">
-        <v>-134270.2875747851</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>49.9288</v>
       </c>
       <c r="G26" t="n">
-        <v>-134220.3587747851</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>978.5413</v>
       </c>
       <c r="G27" t="n">
-        <v>-133241.8174747851</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>59.6479</v>
       </c>
       <c r="G28" t="n">
-        <v>-133241.8174747851</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>450</v>
       </c>
       <c r="G29" t="n">
-        <v>-133241.8174747851</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>7.9765</v>
       </c>
       <c r="G30" t="n">
-        <v>-133233.8409747851</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>212</v>
       </c>
       <c r="G31" t="n">
-        <v>-133021.8409747851</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>131.8298</v>
       </c>
       <c r="G32" t="n">
-        <v>-133021.8409747851</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>-133031.8409747851</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>70.021</v>
       </c>
       <c r="G34" t="n">
-        <v>-132961.8199747851</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>24.28</v>
       </c>
       <c r="G35" t="n">
-        <v>-132986.0999747851</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1332.1782</v>
       </c>
       <c r="G36" t="n">
-        <v>-132986.0999747851</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>466.5862</v>
       </c>
       <c r="G37" t="n">
-        <v>-132519.5137747851</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>225.3</v>
       </c>
       <c r="G38" t="n">
-        <v>-132744.8137747851</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>66.7473</v>
       </c>
       <c r="G39" t="n">
-        <v>-132678.0664747851</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>28.9532</v>
       </c>
       <c r="G40" t="n">
-        <v>-132707.0196747851</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>-132708.0196747851</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>99.65779999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-132608.3618747851</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>345.7639</v>
       </c>
       <c r="G43" t="n">
-        <v>-132954.1257747851</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>210</v>
       </c>
       <c r="G44" t="n">
-        <v>-132744.1257747851</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>342.4794</v>
       </c>
       <c r="G45" t="n">
-        <v>-132744.1257747851</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>-132745.1257747851</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>608.8151</v>
       </c>
       <c r="G47" t="n">
-        <v>-133353.9408747851</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>192.9343</v>
       </c>
       <c r="G48" t="n">
-        <v>-133353.9408747851</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>91.2</v>
       </c>
       <c r="G49" t="n">
-        <v>-133262.7408747851</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>-133261.7408747851</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>-133262.7408747851</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>149.75</v>
       </c>
       <c r="G52" t="n">
-        <v>-133112.9908747851</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>0.4</v>
       </c>
       <c r="G53" t="n">
-        <v>-133112.9908747851</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>2.25</v>
       </c>
       <c r="G54" t="n">
-        <v>-133115.2408747851</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>-133116.2408747851</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,22 +2063,15 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>-133115.2408747851</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5205</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2267,24 +2093,15 @@
         <v>2507.6765</v>
       </c>
       <c r="G57" t="n">
-        <v>-135622.9173747851</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2306,24 +2123,15 @@
         <v>0.4026845637583892</v>
       </c>
       <c r="G58" t="n">
-        <v>-135622.5146902213</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2345,24 +2153,15 @@
         <v>25.9175</v>
       </c>
       <c r="G59" t="n">
-        <v>-135622.5146902213</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2384,24 +2183,15 @@
         <v>382.3831</v>
       </c>
       <c r="G60" t="n">
-        <v>-136004.8977902214</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2423,24 +2213,15 @@
         <v>23.2227</v>
       </c>
       <c r="G61" t="n">
-        <v>-135981.6750902213</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2462,26 +2243,15 @@
         <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>-135983.6750902213</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5210</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2503,26 +2273,15 @@
         <v>150</v>
       </c>
       <c r="G63" t="n">
-        <v>-135983.6750902213</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5200</v>
-      </c>
-      <c r="J63" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2544,26 +2303,15 @@
         <v>112.4507</v>
       </c>
       <c r="G64" t="n">
-        <v>-135983.6750902213</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5200</v>
-      </c>
-      <c r="J64" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2585,26 +2333,15 @@
         <v>200.0012</v>
       </c>
       <c r="G65" t="n">
-        <v>-136183.6762902213</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5200</v>
-      </c>
-      <c r="J65" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2626,26 +2363,15 @@
         <v>26.9</v>
       </c>
       <c r="G66" t="n">
-        <v>-136156.7762902213</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5195</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2667,26 +2393,15 @@
         <v>13.5</v>
       </c>
       <c r="G67" t="n">
-        <v>-136156.7762902213</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5210</v>
-      </c>
-      <c r="J67" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2708,26 +2423,15 @@
         <v>3210.3731</v>
       </c>
       <c r="G68" t="n">
-        <v>-139367.1493902213</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5210</v>
-      </c>
-      <c r="J68" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2749,26 +2453,15 @@
         <v>97.9952</v>
       </c>
       <c r="G69" t="n">
-        <v>-139269.1541902213</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>5200</v>
-      </c>
-      <c r="J69" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2790,26 +2483,19 @@
         <v>72.28270000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>-139269.1541902213</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>5205</v>
       </c>
       <c r="I70" t="n">
         <v>5205</v>
       </c>
-      <c r="J70" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2831,26 +2517,23 @@
         <v>10.1</v>
       </c>
       <c r="G71" t="n">
-        <v>-139269.1541902213</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>5205</v>
       </c>
       <c r="I71" t="n">
         <v>5205</v>
       </c>
-      <c r="J71" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2872,26 +2555,23 @@
         <v>6.1385</v>
       </c>
       <c r="G72" t="n">
-        <v>-139269.1541902213</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>5205</v>
       </c>
       <c r="I72" t="n">
         <v>5205</v>
       </c>
-      <c r="J72" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2913,26 +2593,19 @@
         <v>0.4030710172744721</v>
       </c>
       <c r="G73" t="n">
-        <v>-139268.7511192041</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>5205</v>
       </c>
       <c r="I73" t="n">
         <v>5205</v>
       </c>
-      <c r="J73" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2954,26 +2627,23 @@
         <v>174.326</v>
       </c>
       <c r="G74" t="n">
-        <v>-139443.0771192041</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>5210</v>
       </c>
       <c r="I74" t="n">
-        <v>5210</v>
-      </c>
-      <c r="J74" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>5205</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2995,26 +2665,23 @@
         <v>277.0021</v>
       </c>
       <c r="G75" t="n">
-        <v>-139166.0750192041</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>5205</v>
       </c>
       <c r="I75" t="n">
         <v>5205</v>
       </c>
-      <c r="J75" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3036,26 +2703,21 @@
         <v>7.4491</v>
       </c>
       <c r="G76" t="n">
-        <v>-139166.0750192041</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>5215</v>
-      </c>
-      <c r="J76" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K76" t="inlineStr">
+        <v>5205</v>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3077,26 +2739,21 @@
         <v>70</v>
       </c>
       <c r="G77" t="n">
-        <v>-139166.0750192041</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>5215</v>
-      </c>
-      <c r="J77" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K77" t="inlineStr">
+        <v>5205</v>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3118,26 +2775,21 @@
         <v>14.0392</v>
       </c>
       <c r="G78" t="n">
-        <v>-139166.0750192041</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>5215</v>
-      </c>
-      <c r="J78" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K78" t="inlineStr">
+        <v>5205</v>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3159,26 +2811,21 @@
         <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>-139166.0750192041</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>5215</v>
-      </c>
-      <c r="J79" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K79" t="inlineStr">
+        <v>5205</v>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3200,26 +2847,21 @@
         <v>0.1913875598086124</v>
       </c>
       <c r="G80" t="n">
-        <v>-139165.8836316442</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>5215</v>
-      </c>
-      <c r="J80" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K80" t="inlineStr">
+        <v>5205</v>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3241,24 +2883,21 @@
         <v>15.731</v>
       </c>
       <c r="G81" t="n">
-        <v>-139150.1526316442</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K81" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3280,24 +2919,21 @@
         <v>96.7</v>
       </c>
       <c r="G82" t="n">
-        <v>-139150.1526316442</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3319,24 +2955,21 @@
         <v>2052.7939</v>
       </c>
       <c r="G83" t="n">
-        <v>-137097.3587316443</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K83" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3358,24 +2991,21 @@
         <v>0.1</v>
       </c>
       <c r="G84" t="n">
-        <v>-137097.2587316443</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>5205</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1.005566762728146</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3397,18 +3027,21 @@
         <v>17.5585</v>
       </c>
       <c r="G85" t="n">
-        <v>-137097.2587316443</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3430,18 +3063,21 @@
         <v>7.4314</v>
       </c>
       <c r="G86" t="n">
-        <v>-137104.6901316443</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3463,18 +3099,21 @@
         <v>42.5686</v>
       </c>
       <c r="G87" t="n">
-        <v>-137104.6901316443</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3496,18 +3135,21 @@
         <v>137.5856</v>
       </c>
       <c r="G88" t="n">
-        <v>-137242.2757316442</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3529,18 +3171,21 @@
         <v>431.1184</v>
       </c>
       <c r="G89" t="n">
-        <v>-137242.2757316442</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3562,18 +3207,21 @@
         <v>21.2357</v>
       </c>
       <c r="G90" t="n">
-        <v>-137242.2757316442</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3595,18 +3243,21 @@
         <v>128.1794</v>
       </c>
       <c r="G91" t="n">
-        <v>-137114.0963316443</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3628,18 +3279,21 @@
         <v>239</v>
       </c>
       <c r="G92" t="n">
-        <v>-137353.0963316443</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3661,18 +3315,21 @@
         <v>87.2175</v>
       </c>
       <c r="G93" t="n">
-        <v>-137265.8788316443</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3694,18 +3351,21 @@
         <v>0.2120229007633588</v>
       </c>
       <c r="G94" t="n">
-        <v>-137265.6668087435</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3727,18 +3387,21 @@
         <v>4</v>
       </c>
       <c r="G95" t="n">
-        <v>-137265.6668087435</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3760,18 +3423,21 @@
         <v>103.1541</v>
       </c>
       <c r="G96" t="n">
-        <v>-137368.8209087435</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3793,18 +3459,21 @@
         <v>349.3268</v>
       </c>
       <c r="G97" t="n">
-        <v>-137718.1477087435</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3826,18 +3495,21 @@
         <v>215.5916</v>
       </c>
       <c r="G98" t="n">
-        <v>-137718.1477087435</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3859,18 +3531,21 @@
         <v>300</v>
       </c>
       <c r="G99" t="n">
-        <v>-138018.1477087435</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3892,22 +3567,21 @@
         <v>99.5</v>
       </c>
       <c r="G100" t="n">
-        <v>-137918.6477087435</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>5210</v>
-      </c>
-      <c r="J100" t="n">
-        <v>5210</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>5205</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3929,24 +3603,21 @@
         <v>4.0994</v>
       </c>
       <c r="G101" t="n">
-        <v>-137914.5483087435</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>5210</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3968,24 +3639,21 @@
         <v>18.8061</v>
       </c>
       <c r="G102" t="n">
-        <v>-137933.3544087435</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>5210</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4007,18 +3675,21 @@
         <v>3.1133</v>
       </c>
       <c r="G103" t="n">
-        <v>-137936.4677087435</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4040,18 +3711,21 @@
         <v>0.2</v>
       </c>
       <c r="G104" t="n">
-        <v>-137936.2677087435</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4073,18 +3747,21 @@
         <v>67.2</v>
       </c>
       <c r="G105" t="n">
-        <v>-137869.0677087435</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4106,18 +3783,21 @@
         <v>2315.8311</v>
       </c>
       <c r="G106" t="n">
-        <v>-140184.8988087435</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4139,18 +3819,21 @@
         <v>216.8356</v>
       </c>
       <c r="G107" t="n">
-        <v>-139968.0632087435</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4172,18 +3855,21 @@
         <v>106</v>
       </c>
       <c r="G108" t="n">
-        <v>-139862.0632087435</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4205,18 +3891,21 @@
         <v>1568.8211</v>
       </c>
       <c r="G109" t="n">
-        <v>-141430.8843087435</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4238,18 +3927,21 @@
         <v>7.4208</v>
       </c>
       <c r="G110" t="n">
-        <v>-141423.4635087435</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4271,18 +3963,21 @@
         <v>45.0458</v>
       </c>
       <c r="G111" t="n">
-        <v>-141378.4177087435</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4304,18 +3999,21 @@
         <v>37.9868</v>
       </c>
       <c r="G112" t="n">
-        <v>-141378.4177087435</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4337,18 +4035,21 @@
         <v>18.7591</v>
       </c>
       <c r="G113" t="n">
-        <v>-141397.1768087435</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4370,18 +4071,21 @@
         <v>300.2991</v>
       </c>
       <c r="G114" t="n">
-        <v>-141096.8777087435</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4403,18 +4107,21 @@
         <v>801.4845</v>
       </c>
       <c r="G115" t="n">
-        <v>-140295.3932087435</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4436,18 +4143,21 @@
         <v>12.9125</v>
       </c>
       <c r="G116" t="n">
-        <v>-140308.3057087435</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>5205</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1.006527377521614</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4469,18 +4179,15 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>-140308.3057087435</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4502,18 +4209,15 @@
         <v>489.9112</v>
       </c>
       <c r="G118" t="n">
-        <v>-140308.3057087435</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4535,18 +4239,15 @@
         <v>12.2063</v>
       </c>
       <c r="G119" t="n">
-        <v>-140320.5120087435</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4568,18 +4269,15 @@
         <v>131.928</v>
       </c>
       <c r="G120" t="n">
-        <v>-140188.5840087435</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4601,18 +4299,15 @@
         <v>8.5123</v>
       </c>
       <c r="G121" t="n">
-        <v>-140197.0963087435</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4634,18 +4329,15 @@
         <v>66.6003</v>
       </c>
       <c r="G122" t="n">
-        <v>-140197.0963087435</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4667,18 +4359,15 @@
         <v>98.93859999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>-140296.0349087435</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4700,18 +4389,15 @@
         <v>32.0614</v>
       </c>
       <c r="G124" t="n">
-        <v>-140296.0349087435</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4733,18 +4419,15 @@
         <v>42.9</v>
       </c>
       <c r="G125" t="n">
-        <v>-140296.0349087435</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4766,18 +4449,15 @@
         <v>20.2</v>
       </c>
       <c r="G126" t="n">
-        <v>-140275.8349087435</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4799,18 +4479,15 @@
         <v>39.1634</v>
       </c>
       <c r="G127" t="n">
-        <v>-140275.8349087435</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4832,18 +4509,15 @@
         <v>30.3</v>
       </c>
       <c r="G128" t="n">
-        <v>-140245.5349087435</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4865,18 +4539,15 @@
         <v>16.1635</v>
       </c>
       <c r="G129" t="n">
-        <v>-140229.3714087435</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4898,18 +4569,15 @@
         <v>16.1635</v>
       </c>
       <c r="G130" t="n">
-        <v>-140229.3714087435</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4931,18 +4599,15 @@
         <v>1.1681</v>
       </c>
       <c r="G131" t="n">
-        <v>-140230.5395087435</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4964,18 +4629,15 @@
         <v>6.2917</v>
       </c>
       <c r="G132" t="n">
-        <v>-140224.2478087435</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4997,18 +4659,15 @@
         <v>18.8574</v>
       </c>
       <c r="G133" t="n">
-        <v>-140205.3904087435</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5030,18 +4689,15 @@
         <v>400</v>
       </c>
       <c r="G134" t="n">
-        <v>-140605.3904087435</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5063,18 +4719,15 @@
         <v>242.8183</v>
       </c>
       <c r="G135" t="n">
-        <v>-140848.2087087435</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5096,18 +4749,15 @@
         <v>200.0775</v>
       </c>
       <c r="G136" t="n">
-        <v>-141048.2862087435</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5129,18 +4779,15 @@
         <v>2.7605</v>
       </c>
       <c r="G137" t="n">
-        <v>-141045.5257087435</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5162,18 +4809,15 @@
         <v>1.9668</v>
       </c>
       <c r="G138" t="n">
-        <v>-141043.5589087435</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5195,18 +4839,15 @@
         <v>80.515</v>
       </c>
       <c r="G139" t="n">
-        <v>-141124.0739087435</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5228,18 +4869,15 @@
         <v>37.3404</v>
       </c>
       <c r="G140" t="n">
-        <v>-141086.7335087435</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5261,18 +4899,15 @@
         <v>10.6538</v>
       </c>
       <c r="G141" t="n">
-        <v>-141097.3873087435</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5294,18 +4929,15 @@
         <v>18.1889</v>
       </c>
       <c r="G142" t="n">
-        <v>-141097.3873087435</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5327,18 +4959,15 @@
         <v>96.5</v>
       </c>
       <c r="G143" t="n">
-        <v>-141193.8873087435</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5360,18 +4989,15 @@
         <v>55.6059</v>
       </c>
       <c r="G144" t="n">
-        <v>-141138.2814087436</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5393,18 +5019,15 @@
         <v>165.6194</v>
       </c>
       <c r="G145" t="n">
-        <v>-140972.6620087436</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5426,18 +5049,15 @@
         <v>18.03</v>
       </c>
       <c r="G146" t="n">
-        <v>-140990.6920087436</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5459,18 +5079,15 @@
         <v>19.0327</v>
       </c>
       <c r="G147" t="n">
-        <v>-140971.6593087435</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5492,18 +5109,15 @@
         <v>13.0133</v>
       </c>
       <c r="G148" t="n">
-        <v>-140971.6593087435</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5525,18 +5139,15 @@
         <v>8.1732</v>
       </c>
       <c r="G149" t="n">
-        <v>-140971.6593087435</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5558,18 +5169,15 @@
         <v>6.1103</v>
       </c>
       <c r="G150" t="n">
-        <v>-140971.6593087435</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5591,18 +5199,15 @@
         <v>13.7</v>
       </c>
       <c r="G151" t="n">
-        <v>-140985.3593087436</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
